--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1138095.579581091</v>
+        <v>1110468.461250756</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3301584.065976682</v>
+        <v>2076620.518330249</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6409890.106263969</v>
+        <v>5189238.772610773</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9540375.227683041</v>
+        <v>9960432.576402023</v>
       </c>
     </row>
     <row r="11">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>127.8876512957676</v>
+        <v>55.37289491446958</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I2" t="n">
-        <v>189.5093499452279</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>115.7068873535072</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>42.28824965026889</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.0525350560272</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>79.37816995058277</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.09141876102757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>166.2783060866372</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.9918666049025</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9222385212917</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>4.421914456673885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>22.27550463316616</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>68.8515997650105</v>
       </c>
       <c r="G5" t="n">
-        <v>413.8940740630724</v>
+        <v>414.0972650417663</v>
       </c>
       <c r="H5" t="n">
-        <v>325.0483275373305</v>
+        <v>327.1292571478796</v>
       </c>
       <c r="I5" t="n">
-        <v>156.1683918347603</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>61.3821623705188</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2329598316715</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>147.752358108207</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5898157699679</v>
+        <v>136.6985325280492</v>
       </c>
       <c r="H6" t="n">
-        <v>104.9562755175466</v>
+        <v>106.0062505232272</v>
       </c>
       <c r="I6" t="n">
-        <v>63.44682611038111</v>
+        <v>67.18992501800749</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53.36223361428939</v>
+        <v>60.11220917306123</v>
       </c>
       <c r="S6" t="n">
-        <v>157.6834982951399</v>
+        <v>159.7028643937128</v>
       </c>
       <c r="T6" t="n">
-        <v>66.24292016389036</v>
+        <v>197.5649879943246</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8917964629983</v>
+        <v>25.74504005868296</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.879104136547361</v>
+        <v>111.7716078801031</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>179.4094106381321</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.8378988107489</v>
+        <v>277.5292192911166</v>
       </c>
       <c r="H8" t="n">
-        <v>324.4730227344726</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>154.0026954195591</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2284658114856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>136.5597593601987</v>
       </c>
       <c r="H9" t="n">
-        <v>104.665993875829</v>
+        <v>40.68079881003079</v>
       </c>
       <c r="I9" t="n">
         <v>62.41198919508471</v>
@@ -1265,7 +1265,7 @@
         <v>157.1252136663144</v>
       </c>
       <c r="T9" t="n">
-        <v>133.0204396774093</v>
+        <v>197.0056347432079</v>
       </c>
       <c r="U9" t="n">
         <v>225.8898190676188</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>16.8403794591862</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.3851676237297</v>
       </c>
       <c r="I10" t="n">
-        <v>48.05204131893293</v>
+        <v>135.6904011488205</v>
       </c>
       <c r="J10" t="n">
         <v>46.90389179293925</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.7488554315367</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.1380819688299</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>331.9643454582587</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>93.92339181521191</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>2.454476553030431</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
         <v>286.260654658097</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>116.9979730949162</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9845319222597</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.60818846954271</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>211.7857997499446</v>
       </c>
       <c r="U16" t="n">
-        <v>254.3297761983644</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>263.7394182836358</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>115.8119201064344</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>52.85805945030029</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>157.5005156216827</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>263.7394182836358</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>203.4280318943839</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>6.980384243200533</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>79.28604738509095</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>118.4960408938903</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>95.42292247365781</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>83.6319453454073</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>123.1151606089197</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>17.20389403054554</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>95.42292247365781</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>115.9130544347137</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>56.07915793332274</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U28" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>237.4541009793749</v>
       </c>
       <c r="X29" t="n">
-        <v>283.5495636058417</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.07698731088446</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9207765545704</v>
+        <v>113.6714023978541</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>276.9357307054844</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>315.9324224046641</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>30.50884432553444</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>144.8879095615791</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>254.521066909112</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>315.9324224046641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>113.6714023978541</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>145.7627116979855</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,16 +3508,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>265.9518965924235</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>263.7394182836356</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>83.34476914020995</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>228.1641319420677</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>247.4118363136156</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>291.7902183264333</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
-        <v>70.13956257452328</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>143.5350832659248</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>244.5765062502986</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>114.2568435160706</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>205.3658819001186</v>
+        <v>202.3860496764734</v>
       </c>
       <c r="T46" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>214.1177467433092</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.9585762583697</v>
+        <v>363.9162123674374</v>
       </c>
       <c r="C2" t="n">
-        <v>358.9585762583697</v>
+        <v>363.9162123674374</v>
       </c>
       <c r="D2" t="n">
-        <v>358.9585762583697</v>
+        <v>363.9162123674374</v>
       </c>
       <c r="E2" t="n">
-        <v>358.9585762583697</v>
+        <v>363.9162123674374</v>
       </c>
       <c r="F2" t="n">
-        <v>352.0130755091662</v>
+        <v>356.970711618234</v>
       </c>
       <c r="G2" t="n">
-        <v>222.8336297558656</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H2" t="n">
-        <v>222.8336297558656</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>31.41004395260506</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>65.2767329097951</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
-        <v>236.7789248708509</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>501.8191868019535</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>813.3340914645058</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>1115.257635417491</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>1355.167838597919</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
-        <v>1522.25126358616</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>1570.502197630253</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1453.626553838832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1453.626553838832</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>1453.626553838832</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="U2" t="n">
-        <v>1453.626553838832</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="V2" t="n">
-        <v>1122.563666495261</v>
+        <v>642.8621858041602</v>
       </c>
       <c r="W2" t="n">
-        <v>1122.563666495261</v>
+        <v>363.9162123674374</v>
       </c>
       <c r="X2" t="n">
-        <v>749.0979082341814</v>
+        <v>363.9162123674374</v>
       </c>
       <c r="Y2" t="n">
-        <v>358.9585762583697</v>
+        <v>363.9162123674374</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>396.5614756697706</v>
+        <v>239.2609540644557</v>
       </c>
       <c r="C3" t="n">
-        <v>396.5614756697706</v>
+        <v>64.80792478332873</v>
       </c>
       <c r="D3" t="n">
-        <v>396.5614756697706</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>396.5614756697706</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>250.0269176966556</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>111.5900135996584</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5900135996584</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>31.41004395260506</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>57.88743220245824</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>57.88743220245824</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>350.3988649302527</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>739.0981588437404</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="N3" t="n">
-        <v>1015.55640901443</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
-        <v>1332.849548118982</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
-        <v>1570.502197630253</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
-        <v>1570.502197630253</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1487.581572619114</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1319.623687683117</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1118.62180222362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>890.4175208889815</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>655.2654126572388</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="W3" t="n">
-        <v>401.0280559290372</v>
+        <v>615.2365898494777</v>
       </c>
       <c r="X3" t="n">
-        <v>396.5614756697706</v>
+        <v>615.2365898494777</v>
       </c>
       <c r="Y3" t="n">
-        <v>396.5614756697706</v>
+        <v>407.4762910845238</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.41004395260506</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>31.41004395260506</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>31.41004395260506</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>31.41004395260506</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F4" t="n">
-        <v>31.41004395260506</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>31.41004395260506</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>31.41004395260506</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>31.41004395260506</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>31.41004395260506</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>37.4223327905684</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>100.6424271475252</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>177.6882756301357</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
-        <v>258.3367624636215</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>316.8123978757033</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>343.3277237200365</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>343.3277237200365</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>343.3277237200365</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>343.3277237200365</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>343.3277237200365</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>343.3277237200365</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>343.3277237200365</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>53.91055368307593</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>31.41004395260506</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.41004395260506</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1752.328775746952</v>
+        <v>1609.019764002803</v>
       </c>
       <c r="C5" t="n">
-        <v>1752.328775746952</v>
+        <v>1609.019764002803</v>
       </c>
       <c r="D5" t="n">
-        <v>1752.328775746952</v>
+        <v>1250.754065396052</v>
       </c>
       <c r="E5" t="n">
-        <v>1366.540523148708</v>
+        <v>864.9658127978078</v>
       </c>
       <c r="F5" t="n">
-        <v>955.5546183591</v>
+        <v>795.4187423281002</v>
       </c>
       <c r="G5" t="n">
-        <v>537.4797960731684</v>
+        <v>377.1386766293463</v>
       </c>
       <c r="H5" t="n">
-        <v>209.1481520960668</v>
+        <v>46.70508355067993</v>
       </c>
       <c r="I5" t="n">
-        <v>51.4023017579251</v>
+        <v>46.70508355067993</v>
       </c>
       <c r="J5" t="n">
-        <v>157.9354694647168</v>
+        <v>136.165126732827</v>
       </c>
       <c r="K5" t="n">
-        <v>438.3458762300512</v>
+        <v>390.9873455866845</v>
       </c>
       <c r="L5" t="n">
-        <v>838.4964089489738</v>
+        <v>759.3934685390677</v>
       </c>
       <c r="M5" t="n">
-        <v>1300.347522825105</v>
+        <v>1185.922810056985</v>
       </c>
       <c r="N5" t="n">
-        <v>1755.039873028413</v>
+        <v>1604.721844697547</v>
       </c>
       <c r="O5" t="n">
-        <v>2139.205327937696</v>
+        <v>1954.994259535527</v>
       </c>
       <c r="P5" t="n">
-        <v>2429.407272813312</v>
+        <v>2216.269278853483</v>
       </c>
       <c r="Q5" t="n">
-        <v>2570.115087896255</v>
+        <v>2335.254177533996</v>
       </c>
       <c r="R5" t="n">
-        <v>2508.11290368361</v>
+        <v>2335.254177533996</v>
       </c>
       <c r="S5" t="n">
-        <v>2508.11290368361</v>
+        <v>2335.254177533996</v>
       </c>
       <c r="T5" t="n">
-        <v>2508.11290368361</v>
+        <v>2335.254177533996</v>
       </c>
       <c r="U5" t="n">
-        <v>2254.342237186972</v>
+        <v>2335.254177533996</v>
       </c>
       <c r="V5" t="n">
-        <v>2105.097431017066</v>
+        <v>2335.254177533996</v>
       </c>
       <c r="W5" t="n">
-        <v>1752.328775746952</v>
+        <v>1982.485522263882</v>
       </c>
       <c r="X5" t="n">
-        <v>1752.328775746952</v>
+        <v>1609.019764002803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1752.328775746952</v>
+        <v>1609.019764002803</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.6354076161421</v>
+        <v>814.4364638362431</v>
       </c>
       <c r="C6" t="n">
-        <v>814.1823783350151</v>
+        <v>814.4364638362431</v>
       </c>
       <c r="D6" t="n">
-        <v>665.2479686737638</v>
+        <v>665.5020541749918</v>
       </c>
       <c r="E6" t="n">
-        <v>506.0105136683084</v>
+        <v>506.2645991695364</v>
       </c>
       <c r="F6" t="n">
-        <v>359.4759556951933</v>
+        <v>359.7300411964213</v>
       </c>
       <c r="G6" t="n">
-        <v>221.5064448164379</v>
+        <v>221.650715410513</v>
       </c>
       <c r="H6" t="n">
-        <v>115.4900048997242</v>
+        <v>114.5736946799804</v>
       </c>
       <c r="I6" t="n">
-        <v>51.4023017579251</v>
+        <v>46.70508355067993</v>
       </c>
       <c r="J6" t="n">
-        <v>51.4023017579251</v>
+        <v>106.2934927243138</v>
       </c>
       <c r="K6" t="n">
-        <v>297.2490458204505</v>
+        <v>334.7604182190354</v>
       </c>
       <c r="L6" t="n">
-        <v>689.2247288719509</v>
+        <v>703.3667904032973</v>
       </c>
       <c r="M6" t="n">
-        <v>1198.621084334804</v>
+        <v>1119.40856543856</v>
       </c>
       <c r="N6" t="n">
-        <v>1737.206658958054</v>
+        <v>1630.001477399121</v>
       </c>
       <c r="O6" t="n">
-        <v>2163.491560254507</v>
+        <v>2030.678561169768</v>
       </c>
       <c r="P6" t="n">
-        <v>2488.619707808269</v>
+        <v>2335.254177533996</v>
       </c>
       <c r="Q6" t="n">
-        <v>2570.115087896255</v>
+        <v>2335.254177533996</v>
       </c>
       <c r="R6" t="n">
-        <v>2516.213841821215</v>
+        <v>2274.534774328884</v>
       </c>
       <c r="S6" t="n">
-        <v>2356.937580917034</v>
+        <v>2113.21874968877</v>
       </c>
       <c r="T6" t="n">
-        <v>2290.025540347448</v>
+        <v>1913.658155755109</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.852008566641</v>
+        <v>1887.653064786742</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.699900334898</v>
+        <v>1652.500956554999</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.462543606697</v>
+        <v>1398.263599826798</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.611043401164</v>
+        <v>1190.412099621265</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.85074463621</v>
+        <v>982.6518008563112</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.31048775443759</v>
+        <v>604.5253780636253</v>
       </c>
       <c r="C7" t="n">
-        <v>51.4023017579251</v>
+        <v>491.6247640433191</v>
       </c>
       <c r="D7" t="n">
-        <v>51.4023017579251</v>
+        <v>341.5081246309834</v>
       </c>
       <c r="E7" t="n">
-        <v>51.4023017579251</v>
+        <v>193.5950310485903</v>
       </c>
       <c r="F7" t="n">
-        <v>51.4023017579251</v>
+        <v>46.70508355067993</v>
       </c>
       <c r="G7" t="n">
-        <v>51.4023017579251</v>
+        <v>46.70508355067993</v>
       </c>
       <c r="H7" t="n">
-        <v>51.4023017579251</v>
+        <v>46.70508355067993</v>
       </c>
       <c r="I7" t="n">
-        <v>51.4023017579251</v>
+        <v>46.70508355067993</v>
       </c>
       <c r="J7" t="n">
-        <v>51.4023017579251</v>
+        <v>46.70508355067993</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0341043156544</v>
+        <v>86.85344825542506</v>
       </c>
       <c r="L7" t="n">
-        <v>222.3518142730065</v>
+        <v>193.755967082284</v>
       </c>
       <c r="M7" t="n">
-        <v>359.5990927297896</v>
+        <v>316.8588074405533</v>
       </c>
       <c r="N7" t="n">
-        <v>499.0175540894742</v>
+        <v>442.4691538253331</v>
       </c>
       <c r="O7" t="n">
-        <v>611.7767731725201</v>
+        <v>542.4743438208832</v>
       </c>
       <c r="P7" t="n">
-        <v>684.7410826262247</v>
+        <v>604.5253780636253</v>
       </c>
       <c r="Q7" t="n">
-        <v>684.7410826262247</v>
+        <v>604.5253780636253</v>
       </c>
       <c r="R7" t="n">
-        <v>684.7410826262247</v>
+        <v>604.5253780636253</v>
       </c>
       <c r="S7" t="n">
-        <v>684.7410826262247</v>
+        <v>604.5253780636253</v>
       </c>
       <c r="T7" t="n">
-        <v>684.7410826262247</v>
+        <v>604.5253780636253</v>
       </c>
       <c r="U7" t="n">
-        <v>684.7410826262247</v>
+        <v>604.5253780636253</v>
       </c>
       <c r="V7" t="n">
-        <v>684.7410826262247</v>
+        <v>604.5253780636253</v>
       </c>
       <c r="W7" t="n">
-        <v>684.7410826262247</v>
+        <v>604.5253780636253</v>
       </c>
       <c r="X7" t="n">
-        <v>456.7515317282074</v>
+        <v>604.5253780636253</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.9589525846773</v>
+        <v>604.5253780636253</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2145.427828396516</v>
+        <v>2012.594115414703</v>
       </c>
       <c r="C8" t="n">
-        <v>1776.465311456105</v>
+        <v>1643.631598474292</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.243684548901</v>
+        <v>1285.365899867541</v>
       </c>
       <c r="E8" t="n">
-        <v>1209.455431950656</v>
+        <v>899.5776472692969</v>
       </c>
       <c r="F8" t="n">
-        <v>798.4695271610487</v>
+        <v>488.5917424796893</v>
       </c>
       <c r="G8" t="n">
-        <v>380.4514475542317</v>
+        <v>208.2591977411877</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961286</v>
+        <v>208.2591977411877</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961286</v>
@@ -4837,19 +4837,19 @@
         <v>2399.193955478825</v>
       </c>
       <c r="U8" t="n">
-        <v>2145.427828396516</v>
+        <v>2399.193955478825</v>
       </c>
       <c r="V8" t="n">
-        <v>2145.427828396516</v>
+        <v>2399.193955478825</v>
       </c>
       <c r="W8" t="n">
-        <v>2145.427828396516</v>
+        <v>2399.193955478825</v>
       </c>
       <c r="X8" t="n">
-        <v>2145.427828396516</v>
+        <v>2399.193955478825</v>
       </c>
       <c r="Y8" t="n">
-        <v>2145.427828396516</v>
+        <v>2399.193955478825</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.5651617950188</v>
+        <v>923.9336516275457</v>
       </c>
       <c r="C9" t="n">
-        <v>814.1121325138918</v>
+        <v>749.4806223464187</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1777228526405</v>
+        <v>600.5462126851675</v>
       </c>
       <c r="E9" t="n">
-        <v>505.9402678471849</v>
+        <v>441.308757679712</v>
       </c>
       <c r="F9" t="n">
-        <v>359.4057098740699</v>
+        <v>294.774199706597</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4665590051823</v>
+        <v>156.8350488377093</v>
       </c>
       <c r="H9" t="n">
         <v>115.7433328679813</v>
@@ -4898,7 +4898,7 @@
         <v>1837.617768753454</v>
       </c>
       <c r="O9" t="n">
-        <v>2135.795673384113</v>
+        <v>2270.982342682092</v>
       </c>
       <c r="P9" t="n">
         <v>2466.605882380167</v>
@@ -4913,22 +4913,22 @@
         <v>2424.317377639486</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.953297157254</v>
+        <v>2225.321786989781</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.781762745518</v>
+        <v>1997.150252578045</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.629654513775</v>
+        <v>1761.998144346302</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.392297785573</v>
+        <v>1507.7607876181</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.540797580041</v>
+        <v>1299.909287412568</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.780498815087</v>
+        <v>1092.148988647614</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.6160034909989</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="C10" t="n">
-        <v>148.6160034909989</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6160034909989</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="E10" t="n">
-        <v>148.6160034909989</v>
+        <v>559.004846860428</v>
       </c>
       <c r="F10" t="n">
-        <v>148.6160034909989</v>
+        <v>412.1148993625176</v>
       </c>
       <c r="G10" t="n">
-        <v>148.6160034909989</v>
+        <v>395.1044150603093</v>
       </c>
       <c r="H10" t="n">
-        <v>148.6160034909989</v>
+        <v>237.1395992787641</v>
       </c>
       <c r="I10" t="n">
         <v>100.0785880173293</v>
@@ -4986,28 +4986,28 @@
         <v>706.9179404428211</v>
       </c>
       <c r="R10" t="n">
-        <v>557.6766723301578</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="S10" t="n">
-        <v>557.6766723301578</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="T10" t="n">
-        <v>330.2644683212386</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="U10" t="n">
-        <v>330.2644683212386</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="V10" t="n">
-        <v>330.2644683212386</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="W10" t="n">
-        <v>330.2644683212386</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="X10" t="n">
-        <v>330.2644683212386</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="Y10" t="n">
-        <v>330.2644683212386</v>
+        <v>706.9179404428211</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1132.072391409515</v>
+        <v>1156.974333471088</v>
       </c>
       <c r="C11" t="n">
-        <v>1132.072391409515</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="D11" t="n">
-        <v>773.8066928027649</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="E11" t="n">
-        <v>388.0184402045207</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="F11" t="n">
-        <v>52.70091953961286</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G11" t="n">
-        <v>52.70091953961286</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H11" t="n">
         <v>52.70091953961286</v>
@@ -5044,19 +5044,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K11" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L11" t="n">
-        <v>709.3115823537878</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M11" t="n">
-        <v>1341.029393337099</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N11" t="n">
-        <v>1968.337061396946</v>
+        <v>1844.222621684495</v>
       </c>
       <c r="O11" t="n">
-        <v>2489.327531709521</v>
+        <v>2391.383826451573</v>
       </c>
       <c r="P11" t="n">
         <v>2600.061856959048</v>
@@ -5074,19 +5074,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U11" t="n">
-        <v>2635.045976980643</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V11" t="n">
-        <v>2635.045976980643</v>
+        <v>2286.482160781135</v>
       </c>
       <c r="W11" t="n">
-        <v>2282.277321710529</v>
+        <v>1933.713505511021</v>
       </c>
       <c r="X11" t="n">
-        <v>1908.811563449449</v>
+        <v>1933.713505511021</v>
       </c>
       <c r="Y11" t="n">
-        <v>1518.672231473637</v>
+        <v>1543.574173535209</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J12" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K12" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L12" t="n">
-        <v>624.6702790690885</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M12" t="n">
-        <v>1265.215628536193</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N12" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q12" t="n">
         <v>2635.045976980643</v>
@@ -5223,22 +5223,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R13" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>714.7173549707657</v>
+        <v>1050.156331753472</v>
       </c>
       <c r="T13" t="n">
-        <v>714.7173549707657</v>
+        <v>824.5271350658372</v>
       </c>
       <c r="U13" t="n">
-        <v>425.5651785484454</v>
+        <v>535.3749586435171</v>
       </c>
       <c r="V13" t="n">
-        <v>170.8806903425586</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="W13" t="n">
-        <v>52.70091953961286</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X13" t="n">
         <v>52.70091953961286</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2248.446136916521</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="C14" t="n">
-        <v>1879.483619976109</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="D14" t="n">
-        <v>1521.217921369359</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E14" t="n">
-        <v>1135.429668771115</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F14" t="n">
-        <v>724.4437639815071</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G14" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H14" t="n">
         <v>52.70091953961286</v>
@@ -5278,19 +5278,19 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J14" t="n">
-        <v>241.3408185533492</v>
+        <v>171.878874790945</v>
       </c>
       <c r="K14" t="n">
-        <v>323.9039731279416</v>
+        <v>575.3459878109904</v>
       </c>
       <c r="L14" t="n">
-        <v>876.7172313741407</v>
+        <v>1128.15924605719</v>
       </c>
       <c r="M14" t="n">
-        <v>1508.435042357452</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N14" t="n">
-        <v>2135.742710417299</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O14" t="n">
         <v>2489.327531709521</v>
@@ -5305,25 +5305,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>2635.045976980643</v>
+        <v>2545.542756304337</v>
       </c>
       <c r="T14" t="n">
-        <v>2635.045976980643</v>
+        <v>2330.742894572048</v>
       </c>
       <c r="U14" t="n">
-        <v>2635.045976980643</v>
+        <v>2330.742894572048</v>
       </c>
       <c r="V14" t="n">
-        <v>2635.045976980643</v>
+        <v>1999.680007228478</v>
       </c>
       <c r="W14" t="n">
-        <v>2635.045976980643</v>
+        <v>1999.680007228478</v>
       </c>
       <c r="X14" t="n">
-        <v>2635.045976980643</v>
+        <v>1626.214248967398</v>
       </c>
       <c r="Y14" t="n">
-        <v>2635.045976980643</v>
+        <v>1236.074916991586</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D15" t="n">
         <v>642.7351650238404</v>
@@ -5348,7 +5348,7 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G15" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H15" t="n">
         <v>98.60577654929637</v>
@@ -5360,28 +5360,28 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K15" t="n">
-        <v>295.3416275592179</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L15" t="n">
-        <v>799.7031674253365</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M15" t="n">
-        <v>1440.248516892441</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N15" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q15" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R15" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S15" t="n">
         <v>2464.467288245464</v>
@@ -5396,10 +5396,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y15" t="n">
         <v>1134.337940986287</v>
@@ -5463,19 +5463,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S16" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T16" t="n">
-        <v>827.0064043113226</v>
+        <v>631.2702659988937</v>
       </c>
       <c r="U16" t="n">
-        <v>570.1076404745909</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="V16" t="n">
-        <v>570.1076404745909</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W16" t="n">
-        <v>280.6904704376302</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X16" t="n">
         <v>52.70091953961286</v>
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1484.84104667963</v>
+        <v>958.4441888434862</v>
       </c>
       <c r="C17" t="n">
-        <v>1115.878529739218</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="D17" t="n">
-        <v>1115.878529739218</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="E17" t="n">
-        <v>730.0902771409737</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="F17" t="n">
-        <v>319.1043723513662</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G17" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H17" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J17" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K17" t="n">
-        <v>156.4983241075885</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L17" t="n">
-        <v>709.3115823537878</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M17" t="n">
-        <v>1341.029393337099</v>
+        <v>1063.416644199549</v>
       </c>
       <c r="N17" t="n">
-        <v>1968.337061396946</v>
+        <v>1690.724312259395</v>
       </c>
       <c r="O17" t="n">
-        <v>2489.327531709521</v>
+        <v>2237.885517026472</v>
       </c>
       <c r="P17" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q17" t="n">
         <v>2635.045976980643</v>
@@ -5542,25 +5542,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S17" t="n">
-        <v>2635.045976980643</v>
+        <v>2518.064239499396</v>
       </c>
       <c r="T17" t="n">
-        <v>2635.045976980643</v>
+        <v>2303.264377767107</v>
       </c>
       <c r="U17" t="n">
-        <v>2635.045976980643</v>
+        <v>2049.572674512258</v>
       </c>
       <c r="V17" t="n">
-        <v>2635.045976980643</v>
+        <v>1718.509787168688</v>
       </c>
       <c r="W17" t="n">
-        <v>2635.045976980643</v>
+        <v>1718.509787168688</v>
       </c>
       <c r="X17" t="n">
-        <v>2261.580218719563</v>
+        <v>1345.044028907608</v>
       </c>
       <c r="Y17" t="n">
-        <v>1871.440886743751</v>
+        <v>1345.044028907608</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D18" t="n">
         <v>642.7351650238404</v>
@@ -5585,7 +5585,7 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H18" t="n">
         <v>98.60577654929637</v>
@@ -5597,28 +5597,28 @@
         <v>52.70091953961286</v>
       </c>
       <c r="K18" t="n">
-        <v>157.1026308627114</v>
+        <v>295.3416275592184</v>
       </c>
       <c r="L18" t="n">
-        <v>661.4641707288299</v>
+        <v>799.7031674253369</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.009520195935</v>
+        <v>1440.248516892442</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.183399498644</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O18" t="n">
-        <v>2503.619408251367</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P18" t="n">
-        <v>2612.309035778665</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q18" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R18" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S18" t="n">
         <v>2464.467288245464</v>
@@ -5633,10 +5633,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y18" t="n">
         <v>1134.337940986287</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>349.707506449859</v>
+        <v>106.0928987823404</v>
       </c>
       <c r="C19" t="n">
-        <v>349.707506449859</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D19" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E19" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F19" t="n">
         <v>52.70091953961286</v>
@@ -5706,19 +5706,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U19" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V19" t="n">
-        <v>508.7989363707505</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W19" t="n">
-        <v>349.707506449859</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X19" t="n">
-        <v>349.707506449859</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="Y19" t="n">
-        <v>349.707506449859</v>
+        <v>287.7413636125801</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1484.84104667963</v>
+        <v>1156.974333471088</v>
       </c>
       <c r="C20" t="n">
-        <v>1115.878529739218</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="D20" t="n">
-        <v>1115.878529739218</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="E20" t="n">
-        <v>730.0902771409737</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="F20" t="n">
-        <v>319.1043723513662</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G20" t="n">
-        <v>52.70091953961286</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H20" t="n">
         <v>52.70091953961286</v>
@@ -5755,22 +5755,22 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K20" t="n">
-        <v>507.3197691032044</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L20" t="n">
-        <v>1060.133027349404</v>
+        <v>531.3604655063299</v>
       </c>
       <c r="M20" t="n">
-        <v>1691.850838332715</v>
+        <v>1163.078276489642</v>
       </c>
       <c r="N20" t="n">
-        <v>2319.158506392562</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O20" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P20" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q20" t="n">
         <v>2635.045976980643</v>
@@ -5779,25 +5779,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S20" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T20" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U20" t="n">
-        <v>2635.045976980643</v>
+        <v>2273.348078978093</v>
       </c>
       <c r="V20" t="n">
-        <v>2635.045976980643</v>
+        <v>2273.348078978093</v>
       </c>
       <c r="W20" t="n">
-        <v>2635.045976980643</v>
+        <v>1920.579423707979</v>
       </c>
       <c r="X20" t="n">
-        <v>2261.580218719563</v>
+        <v>1547.113665446899</v>
       </c>
       <c r="Y20" t="n">
-        <v>1871.440886743751</v>
+        <v>1156.974333471088</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>52.70091953961286</v>
       </c>
       <c r="K21" t="n">
-        <v>120.3087392029699</v>
+        <v>295.3416275592179</v>
       </c>
       <c r="L21" t="n">
-        <v>257.5383372186639</v>
+        <v>799.7031674253365</v>
       </c>
       <c r="M21" t="n">
-        <v>898.0836866857685</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.257565988478</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O21" t="n">
-        <v>2099.693574741201</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P21" t="n">
-        <v>2523.661343222037</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q21" t="n">
         <v>2635.045976980643</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C22" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D22" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E22" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F22" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G22" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H22" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I22" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J22" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K22" t="n">
-        <v>1736.159225116908</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L22" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M22" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N22" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O22" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P22" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q22" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R22" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S22" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T22" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U22" t="n">
-        <v>2627.995083805693</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V22" t="n">
-        <v>2373.310595599806</v>
+        <v>972.5486844483607</v>
       </c>
       <c r="W22" t="n">
-        <v>2083.893425562846</v>
+        <v>683.1315144114001</v>
       </c>
       <c r="X22" t="n">
-        <v>1855.903874664828</v>
+        <v>455.1419635133827</v>
       </c>
       <c r="Y22" t="n">
-        <v>1635.111295521298</v>
+        <v>234.3493843698526</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2452.998035652587</v>
+        <v>2134.774920425096</v>
       </c>
       <c r="C23" t="n">
-        <v>2084.035518712175</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D23" t="n">
-        <v>1725.769820105425</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E23" t="n">
-        <v>1339.98156750718</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F23" t="n">
-        <v>928.9956627175729</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G23" t="n">
-        <v>511.9078809540003</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H23" t="n">
         <v>193.6847657265099</v>
@@ -5995,7 +5995,7 @@
         <v>666.0988071604024</v>
       </c>
       <c r="L23" t="n">
-        <v>1218.912065406602</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M23" t="n">
         <v>1850.629876389914</v>
@@ -6016,25 +6016,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S23" t="n">
-        <v>3699.589756331033</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T23" t="n">
-        <v>3699.589756331033</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.589756331033</v>
+        <v>3289.683015573012</v>
       </c>
       <c r="V23" t="n">
-        <v>3699.589756331033</v>
+        <v>2958.620128229441</v>
       </c>
       <c r="W23" t="n">
-        <v>3603.202965953601</v>
+        <v>2605.851472959327</v>
       </c>
       <c r="X23" t="n">
-        <v>3229.737207692521</v>
+        <v>2521.374760489218</v>
       </c>
       <c r="Y23" t="n">
-        <v>2839.597875716709</v>
+        <v>2521.374760489218</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>192.6510469835163</v>
       </c>
       <c r="K24" t="n">
-        <v>260.2588666468733</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L24" t="n">
-        <v>397.4884646625673</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M24" t="n">
-        <v>1038.033814129672</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N24" t="n">
-        <v>1660.196134132113</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O24" t="n">
-        <v>2209.632142884836</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P24" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q24" t="n">
         <v>2656.33685256765</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>386.1725069448489</v>
+        <v>495.3571301266846</v>
       </c>
       <c r="C25" t="n">
-        <v>386.1725069448489</v>
+        <v>495.3571301266846</v>
       </c>
       <c r="D25" t="n">
-        <v>386.1725069448489</v>
+        <v>345.2404907143489</v>
       </c>
       <c r="E25" t="n">
-        <v>238.2594133624558</v>
+        <v>220.881742624531</v>
       </c>
       <c r="F25" t="n">
-        <v>91.36946586454545</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G25" t="n">
         <v>73.99179512662066</v>
@@ -6174,25 +6174,25 @@
         <v>1073.926476585965</v>
       </c>
       <c r="S25" t="n">
-        <v>866.4861918383708</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T25" t="n">
-        <v>640.8569951507358</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U25" t="n">
-        <v>640.8569951507358</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="V25" t="n">
-        <v>386.1725069448489</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="W25" t="n">
-        <v>386.1725069448489</v>
+        <v>495.3571301266846</v>
       </c>
       <c r="X25" t="n">
-        <v>386.1725069448489</v>
+        <v>495.3571301266846</v>
       </c>
       <c r="Y25" t="n">
-        <v>386.1725069448489</v>
+        <v>495.3571301266846</v>
       </c>
     </row>
     <row r="26">
@@ -6232,7 +6232,7 @@
         <v>666.0988071604024</v>
       </c>
       <c r="L26" t="n">
-        <v>1218.912065406602</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M26" t="n">
         <v>1850.629876389914</v>
@@ -6256,16 +6256,16 @@
         <v>3699.589756331033</v>
       </c>
       <c r="T26" t="n">
-        <v>3603.202965953601</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U26" t="n">
-        <v>3603.202965953601</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="V26" t="n">
-        <v>3603.202965953601</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="W26" t="n">
-        <v>3603.202965953601</v>
+        <v>3346.821101060918</v>
       </c>
       <c r="X26" t="n">
         <v>3229.737207692521</v>
@@ -6305,25 +6305,25 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J27" t="n">
-        <v>73.99179512662066</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K27" t="n">
-        <v>157.3616934996454</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L27" t="n">
-        <v>661.7232333657639</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.268582832869</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N27" t="n">
-        <v>1975.474275085651</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O27" t="n">
-        <v>2524.910283838374</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P27" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q27" t="n">
         <v>2656.33685256765</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>428.6671421954129</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C28" t="n">
-        <v>428.6671421954129</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D28" t="n">
-        <v>278.5505027830771</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E28" t="n">
-        <v>130.637409200684</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F28" t="n">
         <v>73.99179512662066</v>
@@ -6408,28 +6408,28 @@
         <v>1073.926476585965</v>
       </c>
       <c r="R28" t="n">
-        <v>943.4485153053681</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S28" t="n">
-        <v>943.4485153053681</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T28" t="n">
-        <v>717.8193186177331</v>
+        <v>907.2456297917884</v>
       </c>
       <c r="U28" t="n">
-        <v>428.6671421954129</v>
+        <v>618.0934533694682</v>
       </c>
       <c r="V28" t="n">
-        <v>428.6671421954129</v>
+        <v>363.4089651635813</v>
       </c>
       <c r="W28" t="n">
-        <v>428.6671421954129</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="X28" t="n">
-        <v>428.6671421954129</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="Y28" t="n">
-        <v>428.6671421954129</v>
+        <v>73.99179512662066</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1636.823993413137</v>
+        <v>2094.732337045837</v>
       </c>
       <c r="C29" t="n">
-        <v>1267.861476472725</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="D29" t="n">
-        <v>1267.861476472725</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E29" t="n">
-        <v>882.0732238744807</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F29" t="n">
-        <v>471.0873190848732</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G29" t="n">
-        <v>53.99953732130062</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="H29" t="n">
-        <v>53.99953732130062</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I29" t="n">
-        <v>53.99953732130062</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J29" t="n">
-        <v>75.23378731468392</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K29" t="n">
-        <v>157.7969418892763</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L29" t="n">
-        <v>710.6102001354755</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M29" t="n">
-        <v>1342.328011118787</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N29" t="n">
-        <v>1969.635679178634</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O29" t="n">
-        <v>2344.066580040604</v>
+        <v>3025.098749216838</v>
       </c>
       <c r="P29" t="n">
-        <v>2454.80090529013</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q29" t="n">
-        <v>2699.976866065031</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R29" t="n">
-        <v>2699.976866065031</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S29" t="n">
-        <v>2699.976866065031</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T29" t="n">
-        <v>2699.976866065031</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="U29" t="n">
-        <v>2699.976866065031</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="V29" t="n">
-        <v>2699.976866065031</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="W29" t="n">
-        <v>2699.976866065031</v>
+        <v>3244.93726734685</v>
       </c>
       <c r="X29" t="n">
-        <v>2413.56316545307</v>
+        <v>2871.47150908577</v>
       </c>
       <c r="Y29" t="n">
-        <v>2023.423833477258</v>
+        <v>2481.332177109959</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>967.4212217479063</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C30" t="n">
-        <v>792.9681924667793</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D30" t="n">
-        <v>644.0337828055281</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E30" t="n">
-        <v>484.7963278000726</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F30" t="n">
-        <v>338.2617698269576</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G30" t="n">
-        <v>200.8203721861796</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H30" t="n">
-        <v>99.90439433098413</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I30" t="n">
-        <v>53.99953732130062</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J30" t="n">
-        <v>53.99953732130062</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K30" t="n">
-        <v>142.3308535960128</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L30" t="n">
-        <v>646.6923934621313</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M30" t="n">
-        <v>1287.237742929236</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N30" t="n">
-        <v>1955.482017280331</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O30" t="n">
-        <v>2504.918026033054</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P30" t="n">
-        <v>2613.607653560353</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q30" t="n">
-        <v>2636.34459476233</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R30" t="n">
-        <v>2615.232695164517</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S30" t="n">
-        <v>2465.765906027152</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T30" t="n">
-        <v>2268.776610187239</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U30" t="n">
-        <v>2040.637822698405</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V30" t="n">
-        <v>1805.485714466663</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W30" t="n">
-        <v>1551.248357738461</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X30" t="n">
-        <v>1343.396857532928</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y30" t="n">
-        <v>1135.636558767974</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>517.4094234062208</v>
+        <v>188.8113935082914</v>
       </c>
       <c r="C31" t="n">
-        <v>517.4094234062208</v>
+        <v>188.8113935082914</v>
       </c>
       <c r="D31" t="n">
-        <v>517.4094234062208</v>
+        <v>188.8113935082914</v>
       </c>
       <c r="E31" t="n">
-        <v>369.4963298238276</v>
+        <v>188.8113935082914</v>
       </c>
       <c r="F31" t="n">
-        <v>222.6063823259173</v>
+        <v>188.8113935082914</v>
       </c>
       <c r="G31" t="n">
-        <v>53.99953732130062</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H31" t="n">
-        <v>53.99953732130062</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I31" t="n">
-        <v>53.99953732130062</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J31" t="n">
-        <v>53.99953732130062</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K31" t="n">
-        <v>155.0474669169104</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L31" t="n">
-        <v>339.8804618177288</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M31" t="n">
-        <v>545.1500625369667</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N31" t="n">
-        <v>750.973427373071</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O31" t="n">
-        <v>925.0683227616698</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P31" t="n">
-        <v>1050.515899360285</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q31" t="n">
-        <v>1053.934218780645</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R31" t="n">
-        <v>1053.934218780645</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S31" t="n">
-        <v>1053.934218780645</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T31" t="n">
-        <v>828.3050220930103</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U31" t="n">
-        <v>828.3050220930103</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V31" t="n">
-        <v>828.3050220930103</v>
+        <v>819.2419883800786</v>
       </c>
       <c r="W31" t="n">
-        <v>828.3050220930103</v>
+        <v>819.2419883800786</v>
       </c>
       <c r="X31" t="n">
-        <v>600.3154711949929</v>
+        <v>591.2524374820613</v>
       </c>
       <c r="Y31" t="n">
-        <v>600.3154711949929</v>
+        <v>370.4598583385311</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1165.717387685019</v>
+        <v>2003.52207695416</v>
       </c>
       <c r="C32" t="n">
-        <v>796.7548707446076</v>
+        <v>1634.559560013748</v>
       </c>
       <c r="D32" t="n">
-        <v>438.4891721378571</v>
+        <v>1276.293861406998</v>
       </c>
       <c r="E32" t="n">
-        <v>52.70091953961286</v>
+        <v>890.5056088087535</v>
       </c>
       <c r="F32" t="n">
-        <v>52.70091953961286</v>
+        <v>890.5056088087535</v>
       </c>
       <c r="G32" t="n">
-        <v>52.70091953961286</v>
+        <v>473.417827045181</v>
       </c>
       <c r="H32" t="n">
-        <v>52.70091953961286</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J32" t="n">
-        <v>73.93516953299616</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K32" t="n">
-        <v>156.4983241075885</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L32" t="n">
-        <v>709.3115823537878</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M32" t="n">
-        <v>1341.029393337099</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N32" t="n">
-        <v>1968.337061396946</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O32" t="n">
-        <v>2489.327531709521</v>
+        <v>3025.098749216838</v>
       </c>
       <c r="P32" t="n">
-        <v>2600.061856959048</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q32" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R32" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S32" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T32" t="n">
-        <v>2635.045976980643</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="U32" t="n">
-        <v>2635.045976980643</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="V32" t="n">
-        <v>2635.045976980643</v>
+        <v>3153.727007255173</v>
       </c>
       <c r="W32" t="n">
-        <v>2315.922317986033</v>
+        <v>3153.727007255173</v>
       </c>
       <c r="X32" t="n">
-        <v>1942.456559724953</v>
+        <v>2780.261248994093</v>
       </c>
       <c r="Y32" t="n">
-        <v>1552.317227749141</v>
+        <v>2390.121917018282</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>966.1226039662187</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C33" t="n">
-        <v>791.6695746850917</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D33" t="n">
-        <v>642.7351650238404</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E33" t="n">
-        <v>483.4977100183849</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F33" t="n">
-        <v>336.9631520452699</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G33" t="n">
-        <v>199.5217544044918</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929637</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3601713965085</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K33" t="n">
-        <v>500.7885757023184</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L33" t="n">
-        <v>1005.150115568437</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M33" t="n">
-        <v>1645.695465035541</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N33" t="n">
-        <v>1954.183399498644</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O33" t="n">
-        <v>2503.619408251367</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.309035778665</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q33" t="n">
-        <v>2635.045976980643</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R33" t="n">
-        <v>2613.934077382829</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.467288245464</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T33" t="n">
-        <v>2267.477992405552</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U33" t="n">
-        <v>2039.339204916718</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V33" t="n">
-        <v>1804.187096684975</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W33" t="n">
-        <v>1549.949739956773</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X33" t="n">
-        <v>1342.09823975124</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y33" t="n">
-        <v>1134.337940986287</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>378.3209750901532</v>
+        <v>224.1084345389564</v>
       </c>
       <c r="C34" t="n">
-        <v>378.3209750901532</v>
+        <v>224.1084345389564</v>
       </c>
       <c r="D34" t="n">
-        <v>347.5039606199164</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E34" t="n">
-        <v>199.5908670375232</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F34" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G34" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H34" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I34" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J34" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K34" t="n">
-        <v>153.7488491352227</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L34" t="n">
-        <v>338.581844036041</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M34" t="n">
-        <v>543.851444755279</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N34" t="n">
-        <v>749.6748095913833</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O34" t="n">
-        <v>923.7697049799822</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P34" t="n">
-        <v>1049.217281578598</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1052.635600998958</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R34" t="n">
-        <v>922.1576397183603</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S34" t="n">
-        <v>922.1576397183603</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T34" t="n">
-        <v>922.1576397183603</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U34" t="n">
-        <v>633.00546329604</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V34" t="n">
-        <v>378.3209750901532</v>
+        <v>819.2419883800786</v>
       </c>
       <c r="W34" t="n">
-        <v>378.3209750901532</v>
+        <v>672.8905645805038</v>
       </c>
       <c r="X34" t="n">
-        <v>378.3209750901532</v>
+        <v>444.9010136824865</v>
       </c>
       <c r="Y34" t="n">
-        <v>378.3209750901532</v>
+        <v>224.1084345389564</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1165.717387685019</v>
+        <v>2173.309270066006</v>
       </c>
       <c r="C35" t="n">
-        <v>796.7548707446076</v>
+        <v>1804.346753125594</v>
       </c>
       <c r="D35" t="n">
-        <v>438.4891721378571</v>
+        <v>1446.081054518844</v>
       </c>
       <c r="E35" t="n">
-        <v>52.70091953961286</v>
+        <v>1060.292801920599</v>
       </c>
       <c r="F35" t="n">
-        <v>52.70091953961286</v>
+        <v>649.306897130992</v>
       </c>
       <c r="G35" t="n">
-        <v>52.70091953961286</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H35" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J35" t="n">
-        <v>73.93516953299616</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K35" t="n">
-        <v>477.4022825530416</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L35" t="n">
-        <v>683.1408478992856</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M35" t="n">
-        <v>1314.858658882597</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N35" t="n">
-        <v>1942.166326942444</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O35" t="n">
-        <v>2489.327531709521</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P35" t="n">
-        <v>2600.061856959048</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q35" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R35" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S35" t="n">
-        <v>2635.045976980643</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.045976980643</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="U35" t="n">
-        <v>2635.045976980643</v>
+        <v>3289.683015573012</v>
       </c>
       <c r="V35" t="n">
-        <v>2635.045976980643</v>
+        <v>3289.683015573012</v>
       </c>
       <c r="W35" t="n">
-        <v>2315.922317986033</v>
+        <v>2936.914360302897</v>
       </c>
       <c r="X35" t="n">
-        <v>1942.456559724953</v>
+        <v>2563.448602041818</v>
       </c>
       <c r="Y35" t="n">
-        <v>1552.317227749141</v>
+        <v>2173.309270066006</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>966.1226039662187</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C36" t="n">
-        <v>791.6695746850917</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D36" t="n">
-        <v>642.7351650238404</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E36" t="n">
-        <v>483.4977100183849</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F36" t="n">
-        <v>336.9631520452699</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044918</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H36" t="n">
-        <v>98.60577654929637</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I36" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J36" t="n">
-        <v>171.3601713965085</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K36" t="n">
-        <v>500.7885757023184</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L36" t="n">
-        <v>1005.150115568437</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M36" t="n">
-        <v>1232.27200203395</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N36" t="n">
-        <v>1430.928743686615</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O36" t="n">
-        <v>1980.364752439338</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P36" t="n">
-        <v>2404.332520920175</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q36" t="n">
-        <v>2635.045976980643</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.934077382829</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.467288245464</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T36" t="n">
-        <v>2267.477992405552</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U36" t="n">
-        <v>2039.339204916718</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V36" t="n">
-        <v>1804.187096684975</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W36" t="n">
-        <v>1549.949739956773</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X36" t="n">
-        <v>1342.09823975124</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y36" t="n">
-        <v>1134.337940986287</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>199.9359818608104</v>
+        <v>188.8113935082914</v>
       </c>
       <c r="C37" t="n">
-        <v>199.9359818608104</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D37" t="n">
-        <v>199.9359818608104</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E37" t="n">
-        <v>199.9359818608104</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F37" t="n">
-        <v>199.9359818608104</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G37" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H37" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I37" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J37" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K37" t="n">
-        <v>153.7488491352227</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L37" t="n">
-        <v>338.581844036041</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M37" t="n">
-        <v>543.851444755279</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N37" t="n">
-        <v>749.6748095913833</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O37" t="n">
-        <v>923.7697049799822</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P37" t="n">
-        <v>1049.217281578598</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q37" t="n">
-        <v>1052.635600998958</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R37" t="n">
-        <v>922.1576397183603</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S37" t="n">
-        <v>714.7173549707657</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T37" t="n">
-        <v>489.0881582831306</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U37" t="n">
-        <v>199.9359818608104</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V37" t="n">
-        <v>199.9359818608104</v>
+        <v>819.2419883800786</v>
       </c>
       <c r="W37" t="n">
-        <v>199.9359818608104</v>
+        <v>819.2419883800786</v>
       </c>
       <c r="X37" t="n">
-        <v>199.9359818608104</v>
+        <v>591.2524374820613</v>
       </c>
       <c r="Y37" t="n">
-        <v>199.9359818608104</v>
+        <v>370.4598583385311</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1218.437593867876</v>
+        <v>1455.646542658313</v>
       </c>
       <c r="C38" t="n">
-        <v>849.4750769274647</v>
+        <v>1086.684025717902</v>
       </c>
       <c r="D38" t="n">
-        <v>849.4750769274647</v>
+        <v>728.4183271111513</v>
       </c>
       <c r="E38" t="n">
-        <v>463.6868243292204</v>
+        <v>342.630074512907</v>
       </c>
       <c r="F38" t="n">
-        <v>52.70091953961286</v>
+        <v>342.630074512907</v>
       </c>
       <c r="G38" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H38" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J38" t="n">
-        <v>73.93516953299616</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K38" t="n">
-        <v>156.4983241075885</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L38" t="n">
-        <v>709.3115823537878</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M38" t="n">
-        <v>1341.029393337099</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N38" t="n">
-        <v>1968.337061396946</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O38" t="n">
-        <v>2489.327531709521</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P38" t="n">
-        <v>2600.061856959048</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q38" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R38" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S38" t="n">
-        <v>2635.045976980643</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.045976980643</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="U38" t="n">
-        <v>2635.045976980643</v>
+        <v>3289.683015573012</v>
       </c>
       <c r="V38" t="n">
-        <v>2368.64252416889</v>
+        <v>2958.620128229441</v>
       </c>
       <c r="W38" t="n">
-        <v>2368.64252416889</v>
+        <v>2605.851472959327</v>
       </c>
       <c r="X38" t="n">
-        <v>1995.17676590781</v>
+        <v>2232.385714698247</v>
       </c>
       <c r="Y38" t="n">
-        <v>1605.037433931998</v>
+        <v>1842.246382722435</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662188</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850918</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D39" t="n">
-        <v>642.7351650238404</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E39" t="n">
-        <v>483.4977100183849</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F39" t="n">
-        <v>336.9631520452699</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044917</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H39" t="n">
-        <v>98.60577654929637</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J39" t="n">
-        <v>52.70091953961286</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K39" t="n">
-        <v>120.3087392029699</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L39" t="n">
-        <v>346.1860297752926</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M39" t="n">
-        <v>986.7313792423972</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N39" t="n">
-        <v>1638.905258545106</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.341267297829</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.309035778666</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q39" t="n">
-        <v>2635.045976980643</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R39" t="n">
-        <v>2613.93407738283</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.467288245464</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T39" t="n">
-        <v>2267.477992405552</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U39" t="n">
-        <v>2039.339204916718</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V39" t="n">
-        <v>1804.187096684975</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W39" t="n">
-        <v>1549.949739956774</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X39" t="n">
-        <v>1342.098239751241</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y39" t="n">
-        <v>1134.337940986287</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.70091953961286</v>
+        <v>540.9577110492564</v>
       </c>
       <c r="C40" t="n">
-        <v>52.70091953961286</v>
+        <v>372.0215281213495</v>
       </c>
       <c r="D40" t="n">
-        <v>52.70091953961286</v>
+        <v>221.9048887090138</v>
       </c>
       <c r="E40" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F40" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G40" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H40" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I40" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J40" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K40" t="n">
-        <v>153.7488491352227</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L40" t="n">
-        <v>338.581844036041</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M40" t="n">
-        <v>543.851444755279</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N40" t="n">
-        <v>749.6748095913833</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O40" t="n">
-        <v>923.7697049799822</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P40" t="n">
-        <v>1049.217281578598</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q40" t="n">
-        <v>1052.635600998958</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R40" t="n">
-        <v>1052.635600998958</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S40" t="n">
-        <v>1052.635600998958</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T40" t="n">
-        <v>827.0064043113226</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U40" t="n">
-        <v>537.8542278890025</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V40" t="n">
-        <v>283.1697396831156</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="W40" t="n">
-        <v>52.70091953961286</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="X40" t="n">
-        <v>52.70091953961286</v>
+        <v>845.9369256879481</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.70091953961286</v>
+        <v>625.144346544418</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1871.440886743751</v>
+        <v>2333.305065052698</v>
       </c>
       <c r="C41" t="n">
-        <v>1502.47836980334</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D41" t="n">
-        <v>1144.212671196589</v>
+        <v>1606.076849505536</v>
       </c>
       <c r="E41" t="n">
-        <v>758.424418598345</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F41" t="n">
-        <v>347.4385138087375</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="G41" t="n">
-        <v>52.70091953961286</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H41" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I41" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J41" t="n">
-        <v>73.93516953299616</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K41" t="n">
-        <v>477.4022825530416</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L41" t="n">
-        <v>1030.215540799241</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M41" t="n">
-        <v>1216.914953624649</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N41" t="n">
-        <v>1844.222621684495</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O41" t="n">
-        <v>2391.383826451573</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P41" t="n">
-        <v>2600.061856959048</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q41" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R41" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S41" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U41" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="V41" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="W41" t="n">
-        <v>2635.045976980643</v>
+        <v>3346.821101060918</v>
       </c>
       <c r="X41" t="n">
-        <v>2261.580218719563</v>
+        <v>2973.355342799839</v>
       </c>
       <c r="Y41" t="n">
-        <v>1871.440886743751</v>
+        <v>2583.216010824027</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>966.1226039662187</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C42" t="n">
-        <v>791.6695746850917</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D42" t="n">
-        <v>642.7351650238404</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E42" t="n">
-        <v>483.4977100183849</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F42" t="n">
-        <v>336.9631520452699</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G42" t="n">
-        <v>199.5217544044918</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H42" t="n">
-        <v>98.60577654929637</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I42" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J42" t="n">
-        <v>52.70091953961286</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K42" t="n">
-        <v>120.3087392029699</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L42" t="n">
-        <v>346.1860297752921</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M42" t="n">
-        <v>986.7313792423968</v>
+        <v>1205.93832751005</v>
       </c>
       <c r="N42" t="n">
-        <v>1638.905258545106</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.341267297829</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P42" t="n">
-        <v>2612.309035778665</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q42" t="n">
-        <v>2635.045976980643</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R42" t="n">
-        <v>2613.934077382829</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.467288245464</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T42" t="n">
-        <v>2267.477992405552</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U42" t="n">
-        <v>2039.339204916718</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V42" t="n">
-        <v>1804.187096684975</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W42" t="n">
-        <v>1549.949739956773</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X42" t="n">
-        <v>1342.09823975124</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y42" t="n">
-        <v>1134.337940986287</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.9352249292182</v>
+        <v>411.5348230591442</v>
       </c>
       <c r="C43" t="n">
-        <v>265.9352249292182</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="D43" t="n">
-        <v>265.9352249292182</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="E43" t="n">
-        <v>265.9352249292182</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="F43" t="n">
-        <v>265.9352249292182</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="G43" t="n">
-        <v>265.9352249292182</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H43" t="n">
-        <v>195.0871819246492</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I43" t="n">
-        <v>70.57550729897548</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J43" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K43" t="n">
-        <v>153.7488491352227</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L43" t="n">
-        <v>338.581844036041</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M43" t="n">
-        <v>543.851444755279</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N43" t="n">
-        <v>749.6748095913833</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O43" t="n">
-        <v>923.7697049799822</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P43" t="n">
-        <v>1049.217281578598</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q43" t="n">
-        <v>1052.635600998958</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R43" t="n">
-        <v>922.1576397183603</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S43" t="n">
-        <v>714.7173549707657</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T43" t="n">
-        <v>714.7173549707657</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U43" t="n">
-        <v>714.7173549707657</v>
+        <v>928.9415439941222</v>
       </c>
       <c r="V43" t="n">
-        <v>714.7173549707657</v>
+        <v>928.9415439941222</v>
       </c>
       <c r="W43" t="n">
-        <v>714.7173549707657</v>
+        <v>639.5243739571615</v>
       </c>
       <c r="X43" t="n">
-        <v>486.7278040727483</v>
+        <v>411.5348230591442</v>
       </c>
       <c r="Y43" t="n">
-        <v>265.9352249292182</v>
+        <v>411.5348230591442</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1484.84104667963</v>
+        <v>1825.601271524444</v>
       </c>
       <c r="C44" t="n">
-        <v>1115.878529739218</v>
+        <v>1578.554295514042</v>
       </c>
       <c r="D44" t="n">
-        <v>1115.878529739218</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="E44" t="n">
-        <v>1115.878529739218</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F44" t="n">
-        <v>704.8926249496105</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="G44" t="n">
-        <v>287.804843186038</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H44" t="n">
-        <v>172.393890139502</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J44" t="n">
-        <v>73.93516953299616</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K44" t="n">
-        <v>156.4983241075885</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L44" t="n">
-        <v>709.3115823537878</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M44" t="n">
-        <v>1341.029393337099</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N44" t="n">
-        <v>1968.337061396946</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O44" t="n">
-        <v>2489.327531709521</v>
+        <v>3025.098749216838</v>
       </c>
       <c r="P44" t="n">
-        <v>2600.061856959048</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q44" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R44" t="n">
-        <v>2635.045976980643</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S44" t="n">
-        <v>2635.045976980643</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.045976980643</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U44" t="n">
-        <v>2635.045976980643</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="V44" t="n">
-        <v>2635.045976980643</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="W44" t="n">
-        <v>2635.045976980643</v>
+        <v>2975.806201825458</v>
       </c>
       <c r="X44" t="n">
-        <v>2261.580218719563</v>
+        <v>2602.340443564378</v>
       </c>
       <c r="Y44" t="n">
-        <v>1871.440886743751</v>
+        <v>2212.201111588566</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>966.1226039662187</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C45" t="n">
-        <v>791.6695746850917</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D45" t="n">
-        <v>642.7351650238404</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E45" t="n">
-        <v>483.4977100183849</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F45" t="n">
-        <v>336.9631520452699</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G45" t="n">
-        <v>199.5217544044918</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H45" t="n">
-        <v>98.60577654929637</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I45" t="n">
-        <v>52.70091953961286</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J45" t="n">
-        <v>52.70091953961286</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K45" t="n">
-        <v>120.3087392029699</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L45" t="n">
-        <v>624.6702790690885</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M45" t="n">
-        <v>1265.215628536193</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N45" t="n">
-        <v>1917.389507838902</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O45" t="n">
-        <v>2466.825516591625</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P45" t="n">
-        <v>2612.309035778665</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q45" t="n">
-        <v>2635.045976980643</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R45" t="n">
-        <v>2613.934077382829</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.467288245464</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T45" t="n">
-        <v>2267.477992405552</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U45" t="n">
-        <v>2039.339204916718</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V45" t="n">
-        <v>1804.187096684975</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W45" t="n">
-        <v>1549.949739956773</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X45" t="n">
-        <v>1342.09823975124</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y45" t="n">
-        <v>1134.337940986287</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1804.047478449205</v>
+        <v>687.8476585471667</v>
       </c>
       <c r="C46" t="n">
-        <v>1635.111295521298</v>
+        <v>518.9114756192598</v>
       </c>
       <c r="D46" t="n">
-        <v>1635.111295521298</v>
+        <v>368.7948362069241</v>
       </c>
       <c r="E46" t="n">
-        <v>1635.111295521298</v>
+        <v>220.881742624531</v>
       </c>
       <c r="F46" t="n">
-        <v>1635.111295521298</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G46" t="n">
-        <v>1635.111295521298</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H46" t="n">
-        <v>1635.111295521298</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I46" t="n">
-        <v>1635.111295521298</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J46" t="n">
-        <v>1635.111295521298</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K46" t="n">
-        <v>1736.159225116908</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L46" t="n">
-        <v>1920.992220017726</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M46" t="n">
-        <v>2126.261820736964</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N46" t="n">
-        <v>2332.085185573068</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O46" t="n">
-        <v>2506.180080961667</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P46" t="n">
-        <v>2631.627657560283</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q46" t="n">
-        <v>2635.045976980643</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R46" t="n">
-        <v>2635.045976980643</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S46" t="n">
-        <v>2427.605692233049</v>
+        <v>869.4961233774064</v>
       </c>
       <c r="T46" t="n">
-        <v>2201.976495545413</v>
+        <v>869.4961233774064</v>
       </c>
       <c r="U46" t="n">
-        <v>2201.976495545413</v>
+        <v>869.4961233774064</v>
       </c>
       <c r="V46" t="n">
-        <v>2201.976495545413</v>
+        <v>869.4961233774064</v>
       </c>
       <c r="W46" t="n">
-        <v>2201.976495545413</v>
+        <v>869.4961233774064</v>
       </c>
       <c r="X46" t="n">
-        <v>1985.695943279444</v>
+        <v>869.4961233774064</v>
       </c>
       <c r="Y46" t="n">
-        <v>1985.695943279444</v>
+        <v>869.4961233774064</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>90.85420985079938</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>461.0313538033291</v>
+        <v>361.0244890520117</v>
       </c>
       <c r="N3" t="n">
-        <v>334.9128734548857</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>102.8381633515217</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>55.62937354455045</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>398.9538547553472</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>126.0910181255951</v>
+        <v>57.65005118366554</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>257.3101280666502</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>181.9105774298577</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>354.3650959551675</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>98.9330356140897</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>176.8008973295441</v>
+        <v>48.1056061726357</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>98.93303561408969</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>185.2684807830938</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>56.94306717106298</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>48.1056061726357</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,19 +9172,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>354.3650959551675</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>41.66684235327597</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,7 +9245,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K18" t="n">
-        <v>37.16554713105198</v>
+        <v>176.8008973295439</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>185.2684807830938</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>68.81599650215668</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,16 +9482,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>176.8008973295434</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.54312379457386</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N24" t="n">
-        <v>427.7834124745219</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>15.92129162592694</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10126,10 +10126,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>206.3251268131417</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>20.93282485995468</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N30" t="n">
-        <v>474.3308411095257</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10363,13 +10363,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>354.3650959551675</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N33" t="n">
-        <v>110.9405987984217</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>67.08071667170788</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10603,13 +10603,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>48.10560617263505</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10837,13 +10837,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>354.3650959551675</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>89.54312379457448</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N39" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11077,13 +11077,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>98.9330356140897</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>89.54312379457403</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>458.0981188384287</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11311,13 +11311,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>354.3650959551675</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N45" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>37.16554713105188</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>74.91170028345272</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>118.4960408938903</v>
@@ -23314,16 +23314,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>233.828866654923</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>202.9114053470882</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>169.5250252416748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>62.93237202367709</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>118.4960408938903</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>66.04469865859747</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23703,13 +23703,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>11.5871049708141</v>
       </c>
       <c r="U16" t="n">
-        <v>31.93087845973258</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>149.177485662301</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>38.84096702170575</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>114.3887616483275</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.9207765545704</v>
@@ -23946,19 +23946,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>129.0224827149083</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>149.177485662301</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938903</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>47.72675432791672</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24183,10 +24183,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>279.2802704148964</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>172.851595938737</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>253.8180462437552</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>286.0991553330617</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>23.31880203764948</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>149.7168825240249</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H25" t="n">
         <v>152.7120966692326</v>
@@ -24414,19 +24414,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24496,7 +24496,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>117.2289406413082</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
         <v>251.1547862223006</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>253.8180462437554</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>89.34189008960851</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.9207765545704</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.1547862223006</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>111.7868677380381</v>
       </c>
       <c r="X29" t="n">
-        <v>86.18153707262735</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.75499287105283</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>53.24937415671637</v>
       </c>
       <c r="H31" t="n">
         <v>152.7120966692326</v>
@@ -24891,13 +24891,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>315.0408840752156</v>
+        <v>38.10515336973111</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>33.30854631274894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>118.1066286926779</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.9207765545704</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S34" t="n">
         <v>205.3658819001186</v>
@@ -25131,19 +25131,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>141.6350887750119</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9169039459368</v>
+        <v>158.3958370368248</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>118.4960408938903</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>33.30854631274894</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>53.57541870077377</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>21.1580648565849</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>146.9650073535133</v>
       </c>
       <c r="H38" t="n">
         <v>315.0408840752156</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>64.01284018649932</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>96.48721104172735</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25602,22 +25602,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>58.35886639452332</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>135.322005349865</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>121.1266856195035</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>118.4960408938903</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>82.57253409470927</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>286.260654658097</v>
+        <v>142.7255713921722</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>120.6963855207089</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>200.784040559145</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.1547862223006</v>
@@ -25927,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.9207765545704</v>
@@ -26073,10 +26073,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.97983222364519</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
         <v>286.260654658097</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>11.59190864572793</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1024425.406173905</v>
+        <v>1023472.66991671</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1026469.656471742</v>
+        <v>1025989.356056818</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738636.0673610817</v>
+        <v>738636.0673610818</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738636.067361082</v>
+        <v>738636.0673610818</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738636.0673610818</v>
+        <v>738636.0673610817</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849915.0630187001</v>
+        <v>849915.0630187003</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849915.0630187003</v>
+        <v>849915.0630187002</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>745423.4294824179</v>
+        <v>849915.0630187002</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738636.0673610818</v>
+        <v>849915.0630187003</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738636.0673610817</v>
+        <v>849915.0630187002</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738636.0673610817</v>
+        <v>849915.0630187003</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738636.0673610817</v>
+        <v>849915.0630187001</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738636.0673610818</v>
+        <v>849915.0630187002</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719634</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="E2" t="n">
         <v>341123.8154961246</v>
@@ -26331,31 +26331,31 @@
         <v>341123.8154961246</v>
       </c>
       <c r="H2" t="n">
-        <v>341123.8154961247</v>
+        <v>341123.8154961245</v>
       </c>
       <c r="I2" t="n">
+        <v>388396.004047322</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388396.0040473219</v>
+      </c>
+      <c r="K2" t="n">
+        <v>388396.004047322</v>
+      </c>
+      <c r="L2" t="n">
         <v>388396.0040473221</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>388396.004047322</v>
       </c>
-      <c r="K2" t="n">
-        <v>344007.1400630741</v>
-      </c>
-      <c r="L2" t="n">
-        <v>341123.8154961246</v>
-      </c>
-      <c r="M2" t="n">
-        <v>341123.8154961245</v>
-      </c>
       <c r="N2" t="n">
-        <v>341123.8154961246</v>
+        <v>388396.0040473221</v>
       </c>
       <c r="O2" t="n">
-        <v>341123.8154961246</v>
+        <v>388396.004047322</v>
       </c>
       <c r="P2" t="n">
-        <v>341123.8154961247</v>
+        <v>388396.004047322</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261936.5316977452</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>276628.6396550467</v>
+        <v>340558.8171436583</v>
       </c>
       <c r="D3" t="n">
-        <v>17009.55206423325</v>
+        <v>78534.64341895132</v>
       </c>
       <c r="E3" t="n">
         <v>184057.5967969422</v>
@@ -26389,13 +26389,13 @@
         <v>70771.13658715875</v>
       </c>
       <c r="J3" t="n">
-        <v>102728.1192491925</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>79181.07467234456</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>18968.65157843781</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288966.8144898048</v>
+        <v>325319.6241977946</v>
       </c>
       <c r="C4" t="n">
-        <v>210975.8474543772</v>
+        <v>229299.9704187171</v>
       </c>
       <c r="D4" t="n">
         <v>205909.8635325273</v>
@@ -26429,10 +26429,10 @@
         <v>42070.66996223804</v>
       </c>
       <c r="F4" t="n">
+        <v>42070.66996223804</v>
+      </c>
+      <c r="G4" t="n">
         <v>42070.66996223803</v>
-      </c>
-      <c r="G4" t="n">
-        <v>42070.66996223804</v>
       </c>
       <c r="H4" t="n">
         <v>42070.66996223803</v>
@@ -26444,22 +26444,22 @@
         <v>56875.79859469587</v>
       </c>
       <c r="K4" t="n">
-        <v>42973.69544955132</v>
+        <v>56875.79859469587</v>
       </c>
       <c r="L4" t="n">
-        <v>42070.66996223804</v>
+        <v>56875.79859469587</v>
       </c>
       <c r="M4" t="n">
-        <v>42070.66996223804</v>
+        <v>56875.79859469587</v>
       </c>
       <c r="N4" t="n">
-        <v>42070.66996223804</v>
+        <v>56875.79859469587</v>
       </c>
       <c r="O4" t="n">
-        <v>42070.66996223803</v>
+        <v>56875.79859469587</v>
       </c>
       <c r="P4" t="n">
-        <v>42070.66996223803</v>
+        <v>56875.79859469587</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60448.36258502994</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>80332.17907069584</v>
+        <v>75660.43935347704</v>
       </c>
       <c r="D5" t="n">
         <v>81623.75293431574</v>
@@ -26496,22 +26496,22 @@
         <v>69171.54328360151</v>
       </c>
       <c r="K5" t="n">
-        <v>53977.42735155829</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="L5" t="n">
-        <v>52990.47783747559</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747559</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="N5" t="n">
-        <v>52990.47783747559</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="O5" t="n">
-        <v>52990.47783747559</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="P5" t="n">
-        <v>52990.47783747559</v>
+        <v>69171.54328360151</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-139252.6911006166</v>
+        <v>-30695.32748942496</v>
       </c>
       <c r="C6" t="n">
-        <v>-95837.64850815707</v>
+        <v>-173420.2092438895</v>
       </c>
       <c r="D6" t="n">
-        <v>167555.8491408864</v>
+        <v>106030.7577861685</v>
       </c>
       <c r="E6" t="n">
-        <v>62005.07089946878</v>
+        <v>56310.49689182358</v>
       </c>
       <c r="F6" t="n">
-        <v>246062.667696411</v>
+        <v>240368.0936887659</v>
       </c>
       <c r="G6" t="n">
-        <v>246062.6676964109</v>
+        <v>240368.0936887658</v>
       </c>
       <c r="H6" t="n">
-        <v>246062.667696411</v>
+        <v>240368.0936887657</v>
       </c>
       <c r="I6" t="n">
-        <v>191577.5255818659</v>
+        <v>187938.264119925</v>
       </c>
       <c r="J6" t="n">
-        <v>159620.5429198322</v>
+        <v>186454.7058359445</v>
       </c>
       <c r="K6" t="n">
-        <v>247056.0172619644</v>
+        <v>179528.3260347392</v>
       </c>
       <c r="L6" t="n">
-        <v>246062.667696411</v>
+        <v>239740.749128646</v>
       </c>
       <c r="M6" t="n">
-        <v>246062.6676964108</v>
+        <v>258709.4007070838</v>
       </c>
       <c r="N6" t="n">
-        <v>246062.667696411</v>
+        <v>258709.4007070838</v>
       </c>
       <c r="O6" t="n">
-        <v>246062.6676964109</v>
+        <v>258709.4007070837</v>
       </c>
       <c r="P6" t="n">
-        <v>246062.6676964111</v>
+        <v>258709.4007070837</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.2811550940413</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>350.4050337005859</v>
+        <v>299.8612777504719</v>
       </c>
       <c r="D3" t="n">
         <v>364.3786277160532</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392.6255494075633</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>642.5287719740637</v>
+        <v>583.8135443834991</v>
       </c>
       <c r="D4" t="n">
         <v>658.7614942451607</v>
@@ -26816,22 +26816,22 @@
         <v>924.8974390827582</v>
       </c>
       <c r="K4" t="n">
-        <v>674.9942165162578</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="L4" t="n">
-        <v>658.7614942451607</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451607</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="N4" t="n">
-        <v>658.7614942451607</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="O4" t="n">
-        <v>658.7614942451607</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="P4" t="n">
-        <v>658.7614942451607</v>
+        <v>924.8974390827582</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.2811550940413</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>215.1238786065447</v>
+        <v>264.8400170313465</v>
       </c>
       <c r="D3" t="n">
-        <v>13.97359401546726</v>
+        <v>64.51734996558133</v>
       </c>
       <c r="E3" t="n">
         <v>229.0974726220119</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392.6255494075633</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>249.9032225665004</v>
+        <v>307.6570306811436</v>
       </c>
       <c r="D4" t="n">
-        <v>16.23272227109704</v>
+        <v>74.94794986166164</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>266.1359448375974</v>
       </c>
       <c r="J4" t="n">
-        <v>392.6255494075633</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>307.6570306811436</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>74.94794986166164</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>392.6255494075633</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>249.9032225665004</v>
+        <v>307.6570306811436</v>
       </c>
       <c r="L4" t="n">
-        <v>16.23272227109704</v>
+        <v>74.94794986166164</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>286.8712423797934</v>
+        <v>359.7890536128499</v>
       </c>
       <c r="H2" t="n">
-        <v>333.9051613937295</v>
+        <v>61.87643319194537</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>196.627228091952</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>220.715173156396</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3021454006706</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>105.1568159143699</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>109.4251696750146</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>201.3510707468036</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,25 +27545,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7470297345187</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>160.0582385782269</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>148.114244418224</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.11194170410951</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.73458883249415</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>166.3245291952821</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>219.765221408853</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>226.9032592169012</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3057230133669</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>203.434150755871</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>338.0244459767009</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>164.0019120408579</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>74.14585768590112</v>
       </c>
       <c r="S5" t="n">
-        <v>176.9201511723675</v>
+        <v>181.5503655993554</v>
       </c>
       <c r="T5" t="n">
-        <v>216.9294253027271</v>
+        <v>217.8188938119597</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.249215109967</v>
       </c>
       <c r="V5" t="n">
-        <v>179.9999003619279</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27748,10 +27748,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>130.8838630029045</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>200.1539088226102</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>164.3677169620805</v>
+        <v>55.47521321852471</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3591014288347</v>
+        <v>167.4502459067776</v>
       </c>
       <c r="H7" t="n">
-        <v>156.6092032786007</v>
+        <v>157.4195605461287</v>
       </c>
       <c r="I7" t="n">
-        <v>136.4481822800199</v>
+        <v>139.1891453076097</v>
       </c>
       <c r="J7" t="n">
-        <v>48.68541049225546</v>
+        <v>55.12932508281344</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.25088316290591</v>
+        <v>40.88299031137313</v>
       </c>
       <c r="R7" t="n">
-        <v>148.8818619233482</v>
+        <v>152.980049086123</v>
       </c>
       <c r="S7" t="n">
-        <v>213.0046890270702</v>
+        <v>214.5930887017648</v>
       </c>
       <c r="T7" t="n">
-        <v>225.2457473653426</v>
+        <v>225.6351828620074</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2845632876023</v>
+        <v>286.289534804581</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>175.2736309825509</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>136.3086795196323</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>324.4730227344726</v>
       </c>
       <c r="I8" t="n">
-        <v>154.0026954195591</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>216.683518135681</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2284658114856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>63.98519506579823</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>63.98519506579856</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3339031445446</v>
+        <v>150.4935236853584</v>
       </c>
       <c r="H10" t="n">
-        <v>156.3851676237297</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.63835982988758</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>31.14087046657036</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>147.7488554315367</v>
       </c>
       <c r="S10" t="n">
         <v>212.5655516544858</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.1380819688299</v>
       </c>
       <c r="U10" t="n">
         <v>286.2831888357319</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5438438395740349</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>5.569640722037586</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>20.966539625178</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
-        <v>46.15806607904678</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>69.1789758082157</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>85.82263671357958</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>95.49421959560432</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>97.03941590479405</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>91.63156872502974</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>78.20542393554574</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>58.7290164308006</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>34.1622305876425</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
-        <v>12.39284149429333</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>2.380676407735339</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04350750716592278</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2909821071834096</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>2.810274561481877</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
-        <v>10.0184629008323</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>27.49142794227117</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>46.98722912355961</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>63.18012814085391</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>73.72822952625249</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>75.67959637661843</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>69.23204547534394</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>55.56482009890915</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>37.1436107344998</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>18.06641539161556</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
-        <v>5.404865017200608</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>1.172862089919093</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01914355968311906</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2439496239400744</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>2.168933929212663</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>7.33623050903424</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>17.24723841256326</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>28.34251085412864</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>36.26865590832707</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>38.24021241453366</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>37.33094563439342</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>34.48117048200253</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>29.50459815362499</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.42745441920023</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>10.96886218188734</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>4.251376628119296</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>1.042330211380318</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01330634312400407</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.408663452062656</v>
+        <v>1.20547247336873</v>
       </c>
       <c r="H5" t="n">
-        <v>14.42647457843668</v>
+        <v>12.34554496788751</v>
       </c>
       <c r="I5" t="n">
-        <v>54.3074977356456</v>
+        <v>46.47397752954802</v>
       </c>
       <c r="J5" t="n">
-        <v>119.5585496645029</v>
+        <v>102.3129693365794</v>
       </c>
       <c r="K5" t="n">
-        <v>179.1872735903152</v>
+        <v>153.3406191342777</v>
       </c>
       <c r="L5" t="n">
-        <v>222.2976577113778</v>
+        <v>190.2325973411361</v>
       </c>
       <c r="M5" t="n">
-        <v>247.348976376997</v>
+        <v>211.6704184394072</v>
       </c>
       <c r="N5" t="n">
-        <v>251.3513414101701</v>
+        <v>215.0954671043661</v>
       </c>
       <c r="O5" t="n">
-        <v>237.343944208722</v>
+        <v>203.1085501973058</v>
       </c>
       <c r="P5" t="n">
-        <v>202.5675652359251</v>
+        <v>173.3484485110152</v>
       </c>
       <c r="Q5" t="n">
-        <v>152.1198053589312</v>
+        <v>130.1774655584975</v>
       </c>
       <c r="R5" t="n">
-        <v>88.48695557063088</v>
+        <v>75.72326025524856</v>
       </c>
       <c r="S5" t="n">
-        <v>32.0999184138778</v>
+        <v>27.46970398688997</v>
       </c>
       <c r="T5" t="n">
-        <v>6.16642426140428</v>
+        <v>5.276955752171619</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1126930761650125</v>
+        <v>0.0964377978694984</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7537013932427697</v>
+        <v>0.6449846351613924</v>
       </c>
       <c r="H6" t="n">
-        <v>7.279168718949909</v>
+        <v>6.229193713269237</v>
       </c>
       <c r="I6" t="n">
-        <v>25.94980674103396</v>
+        <v>22.20670783340759</v>
       </c>
       <c r="J6" t="n">
-        <v>71.20825312211625</v>
+        <v>60.93690362285769</v>
       </c>
       <c r="K6" t="n">
-        <v>121.7062464693818</v>
+        <v>104.150874178671</v>
       </c>
       <c r="L6" t="n">
-        <v>163.6490678617689</v>
+        <v>140.0437033494067</v>
       </c>
       <c r="M6" t="n">
-        <v>190.9707433668193</v>
+        <v>163.4243963740071</v>
       </c>
       <c r="N6" t="n">
-        <v>196.0251706925571</v>
+        <v>167.7497538615588</v>
       </c>
       <c r="O6" t="n">
-        <v>179.3247345580725</v>
+        <v>153.4582522087721</v>
       </c>
       <c r="P6" t="n">
-        <v>143.9239090307181</v>
+        <v>123.1637765160382</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.20932170586654</v>
+        <v>82.33172290235598</v>
       </c>
       <c r="R6" t="n">
-        <v>46.79560053835374</v>
+        <v>40.0456249795819</v>
       </c>
       <c r="S6" t="n">
-        <v>13.99967280869793</v>
+        <v>11.98030671012498</v>
       </c>
       <c r="T6" t="n">
-        <v>3.037945528026777</v>
+        <v>2.599740700497014</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04958561797649803</v>
+        <v>0.04243319968167057</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6318779296240074</v>
+        <v>0.5407334516811787</v>
       </c>
       <c r="H7" t="n">
-        <v>5.617969228838906</v>
+        <v>4.807611961310847</v>
       </c>
       <c r="I7" t="n">
-        <v>19.00229264723833</v>
+        <v>16.26132961964854</v>
       </c>
       <c r="J7" t="n">
-        <v>44.67376962441732</v>
+        <v>38.22985503385933</v>
       </c>
       <c r="K7" t="n">
-        <v>73.41272673268011</v>
+        <v>62.82339556804965</v>
       </c>
       <c r="L7" t="n">
-        <v>93.94301510064562</v>
+        <v>80.39231698903635</v>
       </c>
       <c r="M7" t="n">
-        <v>99.04973764097052</v>
+        <v>84.76242643035057</v>
       </c>
       <c r="N7" t="n">
-        <v>96.69455626691749</v>
+        <v>82.74696538317534</v>
       </c>
       <c r="O7" t="n">
-        <v>89.31307317994609</v>
+        <v>76.43021551580881</v>
       </c>
       <c r="P7" t="n">
-        <v>76.42276341561627</v>
+        <v>65.39925310151271</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.91116008878847</v>
+        <v>45.27905294032125</v>
       </c>
       <c r="R7" t="n">
-        <v>28.41152945382127</v>
+        <v>24.31334229104645</v>
       </c>
       <c r="S7" t="n">
-        <v>11.01190900990201</v>
+        <v>9.423509335207447</v>
       </c>
       <c r="T7" t="n">
-        <v>2.69984206293894</v>
+        <v>2.310406566274127</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03446606888858226</v>
+        <v>0.02949455190988251</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.20877672443427</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>173.2345373343999</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>267.7174362940428</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>314.6615198611641</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>304.9732767201873</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>242.3335385660884</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>168.7711363517589</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>48.73831721625579</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>26.74483661601331</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>295.4660936644389</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>392.6255494075633</v>
+        <v>237.9770422219167</v>
       </c>
       <c r="N3" t="n">
-        <v>279.2507577481708</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>320.4981203076291</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>240.0531813245161</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.073019028245788</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.85868116864321</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>77.82408937637425</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>81.46311801362201</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
-        <v>59.06629839604221</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>26.78315741851848</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>107.6092603098904</v>
+        <v>90.36367998196684</v>
       </c>
       <c r="K5" t="n">
-        <v>283.2428351164994</v>
+        <v>257.3961806604619</v>
       </c>
       <c r="L5" t="n">
-        <v>404.192457291841</v>
+        <v>372.1273969215993</v>
       </c>
       <c r="M5" t="n">
-        <v>466.5162766425568</v>
+        <v>430.837718704967</v>
       </c>
       <c r="N5" t="n">
-        <v>459.2852022255633</v>
+        <v>423.0293279197593</v>
       </c>
       <c r="O5" t="n">
-        <v>388.0459140497807</v>
+        <v>353.8105200383644</v>
       </c>
       <c r="P5" t="n">
-        <v>293.1332776521382</v>
+        <v>263.9141609272284</v>
       </c>
       <c r="Q5" t="n">
-        <v>142.1291061443864</v>
+        <v>120.1867663439527</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.19031229659983</v>
       </c>
       <c r="K6" t="n">
-        <v>248.3300445076014</v>
+        <v>230.7746722168906</v>
       </c>
       <c r="L6" t="n">
-        <v>395.9350333853539</v>
+        <v>372.3296688729917</v>
       </c>
       <c r="M6" t="n">
-        <v>514.541773194801</v>
+        <v>420.244217207336</v>
       </c>
       <c r="N6" t="n">
-        <v>544.0258329527773</v>
+        <v>515.750416121779</v>
       </c>
       <c r="O6" t="n">
-        <v>430.5908093903575</v>
+        <v>404.7243270410572</v>
       </c>
       <c r="P6" t="n">
-        <v>328.412270256325</v>
+        <v>307.6521377416451</v>
       </c>
       <c r="Q6" t="n">
-        <v>82.31856574544013</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>51.14323490679726</v>
+        <v>40.5539037421668</v>
       </c>
       <c r="L7" t="n">
-        <v>121.5330403609618</v>
+        <v>107.9823422493525</v>
       </c>
       <c r="M7" t="n">
-        <v>138.6336146028111</v>
+        <v>124.3463033921912</v>
       </c>
       <c r="N7" t="n">
-        <v>140.8267286461461</v>
+        <v>126.8791377624039</v>
       </c>
       <c r="O7" t="n">
-        <v>113.8982010939858</v>
+        <v>101.0153434298485</v>
       </c>
       <c r="P7" t="n">
-        <v>73.70132268050976</v>
+        <v>62.6778123664062</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>551.8430041935621</v>
       </c>
       <c r="O9" t="n">
-        <v>301.1898026572316</v>
+        <v>437.7419938673109</v>
       </c>
       <c r="P9" t="n">
-        <v>334.1517262586402</v>
+        <v>197.5995350485607</v>
       </c>
       <c r="Q9" t="n">
         <v>170.1415096974503</v>
@@ -35412,22 +35412,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K11" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O11" t="n">
-        <v>526.2530003157326</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P11" t="n">
-        <v>111.8528537874005</v>
+        <v>210.7858894014902</v>
       </c>
       <c r="Q11" t="n">
         <v>35.33749497130819</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N12" t="n">
-        <v>377.4642727362761</v>
+        <v>248.7689815793677</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269929</v>
@@ -35509,7 +35509,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391276</v>
+        <v>120.3817729811435</v>
       </c>
       <c r="K14" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N14" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O14" t="n">
-        <v>357.156385143659</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P14" t="n">
         <v>111.8528537874005</v>
@@ -35728,16 +35728,16 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K15" t="n">
-        <v>125.2337941037468</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793677</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269929</v>
@@ -35746,7 +35746,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K17" t="n">
         <v>83.39712583292157</v>
@@ -35892,19 +35892,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O17" t="n">
-        <v>526.2530003157326</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>111.8528537874005</v>
+        <v>153.5196961406765</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>105.4562740637358</v>
+        <v>245.0916242622278</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748672</v>
@@ -35974,13 +35974,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N18" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
         <v>22.96660727472423</v>
@@ -36123,10 +36123,10 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
-        <v>268.6656066160153</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517163</v>
+        <v>209.5520125034225</v>
       </c>
       <c r="M20" t="n">
         <v>638.0987989730422</v>
@@ -36138,10 +36138,10 @@
         <v>171.8879043605652</v>
       </c>
       <c r="P20" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268387</v>
+        <v>245.0916242622273</v>
       </c>
       <c r="L21" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N21" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
@@ -36220,7 +36220,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.5097310692981</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L24" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N24" t="n">
-        <v>628.446787881254</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269929</v>
@@ -36457,7 +36457,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K27" t="n">
-        <v>84.21201855861081</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L27" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N27" t="n">
-        <v>680.0057497502855</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K29" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L29" t="n">
         <v>558.3972305517163</v>
@@ -36846,10 +36846,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O29" t="n">
-        <v>378.2130311737069</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P29" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q29" t="n">
         <v>247.6524856312129</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K30" t="n">
-        <v>89.22355179263855</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N30" t="n">
-        <v>674.9942165162578</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K32" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
         <v>558.3972305517163</v>
@@ -37083,13 +37083,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O32" t="n">
-        <v>526.2530003157326</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q32" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N33" t="n">
-        <v>311.6039742051537</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K35" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>207.8167326729737</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M35" t="n">
         <v>638.0987989730422</v>
@@ -37323,10 +37323,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q35" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
-        <v>229.4160469348621</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N36" t="n">
         <v>200.663375406732</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K38" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
         <v>558.3972305517163</v>
@@ -37557,13 +37557,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
-        <v>526.2530003157326</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P38" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588833</v>
       </c>
       <c r="Q38" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K39" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
-        <v>228.1588793659825</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N39" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269929</v>
@@ -37642,7 +37642,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K41" t="n">
         <v>407.5425384040863</v>
@@ -37788,7 +37788,7 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N41" t="n">
         <v>633.6441091513602</v>
@@ -37797,10 +37797,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P41" t="n">
-        <v>210.7858894014902</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q41" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K42" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
-        <v>228.1588793659821</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N42" t="n">
-        <v>658.7614942451607</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O42" t="n">
         <v>554.9858674269929</v>
@@ -37879,7 +37879,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K44" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
         <v>558.3972305517163</v>
@@ -38031,13 +38031,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O44" t="n">
-        <v>526.2530003157326</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K45" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N45" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O45" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>146.953049683879</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1110468.461250756</v>
+        <v>1134271.518822463</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2076620.518330249</v>
+        <v>2786004.846061928</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5189238.772610773</v>
+        <v>5895041.669098999</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9960432.576402023</v>
+        <v>9722170.173027158</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>55.37289491446958</v>
+        <v>31.46528847854732</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023555</v>
+        <v>330.9510942080266</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>178.3889617917493</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>97.5876711588129</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.4524924186526</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2790695676564</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023555</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>42.28824965026889</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.50921991999971</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>163.4116338563636</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3697953464323</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>133.0381068270435</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>123.0767389570044</v>
       </c>
       <c r="E4" t="n">
-        <v>29.71014592494667</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>68.8515997650105</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>414.0972650417663</v>
+        <v>300.4389764667401</v>
       </c>
       <c r="H5" t="n">
-        <v>327.1292571478796</v>
+        <v>330.9510942080266</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>178.3889617917493</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>190.0542212818257</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.4524924186526</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2790695676564</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.6985325280492</v>
+        <v>136.8982018167114</v>
       </c>
       <c r="H6" t="n">
-        <v>106.0062505232272</v>
+        <v>107.9346354953068</v>
       </c>
       <c r="I6" t="n">
-        <v>67.18992501800749</v>
+        <v>74.06450359694695</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.11220917306123</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>159.7028643937128</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>197.5649879943246</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>25.74504005868296</v>
+        <v>220.7921284459421</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>111.7716078801031</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>123.0767389570044</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>186.0260739766346</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>277.5292192911166</v>
+        <v>413.8378988107489</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>57.85344367675359</v>
       </c>
       <c r="S8" t="n">
-        <v>175.6400576100461</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.683518135681</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>136.5597593601987</v>
       </c>
       <c r="H9" t="n">
-        <v>40.68079881003079</v>
+        <v>40.68079881003035</v>
       </c>
       <c r="I9" t="n">
         <v>62.41198919508471</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>39.95754590783555</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>16.8403794591862</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.3851676237297</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>135.6904011488205</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>46.90389179293925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>381.9256129437731</v>
       </c>
       <c r="G11" t="n">
         <v>412.9169039459368</v>
@@ -1390,7 +1390,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>93.92339181521191</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>154.010057362535</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.454476553030431</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.60818846954271</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>297.3125647919812</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>211.7857997499446</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>284.6162601082558</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>217.6504826990698</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>115.8119201064344</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.651863114966</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>52.85805945030029</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>203.4280318943839</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>315.9324224046636</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>98.72860659578222</v>
       </c>
       <c r="V22" t="n">
-        <v>79.28604738509095</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>327.1677384012763</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
         <v>118.4960408938903</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>83.6319453454073</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.5800756796661</v>
       </c>
       <c r="E25" t="n">
-        <v>123.1151606089197</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>231.3048163799754</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>118.4960408938903</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>115.9130544347137</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>18.5800756796661</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>165.0140383262353</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.260654658097</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>146.6873117041502</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>118.4960408938903</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>237.4541009793749</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>113.6714023978541</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.0278718857045</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
-        <v>276.9357307054844</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
         <v>118.4960408938903</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>224.6055256097293</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>144.8879095615791</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>325.7676256676012</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>254.521066909112</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>113.6714023978541</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>53.01015248443485</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>265.9518965924235</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>15.27844598662261</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
         <v>251.1547862223006</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>83.34476914020995</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>87.39633363617305</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>247.4118363136156</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>272.1692642223803</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>315.0408840752156</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>143.5350832659248</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>84.73964677812198</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>244.5765062502986</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>221.8800644406239</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>118.4821035000399</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>202.3860496764734</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>363.9162123674374</v>
+        <v>977.0799467424729</v>
       </c>
       <c r="C2" t="n">
-        <v>363.9162123674374</v>
+        <v>977.0799467424729</v>
       </c>
       <c r="D2" t="n">
-        <v>363.9162123674374</v>
+        <v>977.0799467424729</v>
       </c>
       <c r="E2" t="n">
-        <v>363.9162123674374</v>
+        <v>591.2916941442286</v>
       </c>
       <c r="F2" t="n">
-        <v>356.970711618234</v>
+        <v>584.3461933950251</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329112</v>
+        <v>552.5630737197248</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>218.2690391661626</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>38.07816866944613</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>96.18169709491667</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>304.008628666433</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>614.1129421375078</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>975.7702870514306</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>1328.647628361361</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>1616.672057506369</v>
       </c>
       <c r="P2" t="n">
-        <v>1099.465256491931</v>
+        <v>1824.81986119342</v>
       </c>
       <c r="Q2" t="n">
-        <v>1104.626054809422</v>
+        <v>1903.908433472306</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>1805.335028261384</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029595</v>
+        <v>1805.335028261384</v>
       </c>
       <c r="T2" t="n">
-        <v>896.7353068029595</v>
+        <v>1583.665844000119</v>
       </c>
       <c r="U2" t="n">
-        <v>642.8621858041602</v>
+        <v>1329.848602012587</v>
       </c>
       <c r="V2" t="n">
-        <v>642.8621858041602</v>
+        <v>1329.848602012587</v>
       </c>
       <c r="W2" t="n">
-        <v>363.9162123674374</v>
+        <v>977.0799467424729</v>
       </c>
       <c r="X2" t="n">
-        <v>363.9162123674374</v>
+        <v>977.0799467424729</v>
       </c>
       <c r="Y2" t="n">
-        <v>363.9162123674374</v>
+        <v>977.0799467424729</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.2609540644557</v>
+        <v>492.7845913092679</v>
       </c>
       <c r="C3" t="n">
-        <v>64.80792478332873</v>
+        <v>492.7845913092679</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618844</v>
+        <v>343.8501816480166</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618844</v>
+        <v>184.6127266425611</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>38.07816866944613</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>38.07816866944613</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>38.07816866944613</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>38.07816866944613</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>38.07816866944613</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>66.52628315892696</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>392.2125594928838</v>
       </c>
       <c r="M3" t="n">
-        <v>641.2451212288496</v>
+        <v>824.2523039856833</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288496</v>
+        <v>1283.433868328282</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121334</v>
+        <v>1637.07961305052</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1903.908433472306</v>
       </c>
       <c r="Q3" t="n">
-        <v>1104.626054809422</v>
+        <v>1903.908433472306</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1830.666797189478</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>1665.604540768909</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>1465.231010115947</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>1330.849084028024</v>
       </c>
       <c r="V3" t="n">
-        <v>869.4739465776793</v>
+        <v>1330.849084028024</v>
       </c>
       <c r="W3" t="n">
-        <v>615.2365898494777</v>
+        <v>1076.611727299823</v>
       </c>
       <c r="X3" t="n">
-        <v>615.2365898494777</v>
+        <v>868.7602270942898</v>
       </c>
       <c r="Y3" t="n">
-        <v>407.4762910845238</v>
+        <v>660.9999283293359</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031359</v>
+        <v>457.201148090158</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031359</v>
+        <v>457.201148090158</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031359</v>
+        <v>332.8812097497496</v>
       </c>
       <c r="E4" t="n">
-        <v>168.9824685940988</v>
+        <v>184.9681161673565</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>38.07816866944613</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>38.07816866944613</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>38.07816866944613</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>38.07816866944613</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>38.07816866944613</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>58.97264266055542</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>141.2368102565223</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>238.3619637935691</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9488293168851</v>
+        <v>338.6123146867502</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>415.1934442115952</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>457.201148090158</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>457.201148090158</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>457.201148090158</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>457.201148090158</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>457.201148090158</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>457.201148090158</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>457.201148090158</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>457.201148090158</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>457.201148090158</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>457.201148090158</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1609.019764002803</v>
+        <v>862.9822880716961</v>
       </c>
       <c r="C5" t="n">
-        <v>1609.019764002803</v>
+        <v>862.9822880716961</v>
       </c>
       <c r="D5" t="n">
-        <v>1250.754065396052</v>
+        <v>862.9822880716961</v>
       </c>
       <c r="E5" t="n">
-        <v>864.9658127978078</v>
+        <v>862.9822880716961</v>
       </c>
       <c r="F5" t="n">
-        <v>795.4187423281002</v>
+        <v>856.0367873224926</v>
       </c>
       <c r="G5" t="n">
-        <v>377.1386766293463</v>
+        <v>552.5630737197248</v>
       </c>
       <c r="H5" t="n">
-        <v>46.70508355067993</v>
+        <v>218.2690391661626</v>
       </c>
       <c r="I5" t="n">
-        <v>46.70508355067993</v>
+        <v>38.07816866944612</v>
       </c>
       <c r="J5" t="n">
-        <v>136.165126732827</v>
+        <v>96.18169709491667</v>
       </c>
       <c r="K5" t="n">
-        <v>390.9873455866845</v>
+        <v>304.0086286664331</v>
       </c>
       <c r="L5" t="n">
-        <v>759.3934685390677</v>
+        <v>614.1129421375076</v>
       </c>
       <c r="M5" t="n">
-        <v>1185.922810056985</v>
+        <v>975.7702870514304</v>
       </c>
       <c r="N5" t="n">
-        <v>1604.721844697547</v>
+        <v>1328.647628361361</v>
       </c>
       <c r="O5" t="n">
-        <v>1954.994259535527</v>
+        <v>1616.672057506368</v>
       </c>
       <c r="P5" t="n">
-        <v>2216.269278853483</v>
+        <v>1824.819861193419</v>
       </c>
       <c r="Q5" t="n">
-        <v>2335.254177533996</v>
+        <v>1903.908433472306</v>
       </c>
       <c r="R5" t="n">
-        <v>2335.254177533996</v>
+        <v>1903.908433472306</v>
       </c>
       <c r="S5" t="n">
-        <v>2335.254177533996</v>
+        <v>1711.934472581573</v>
       </c>
       <c r="T5" t="n">
-        <v>2335.254177533996</v>
+        <v>1490.265288320308</v>
       </c>
       <c r="U5" t="n">
-        <v>2335.254177533996</v>
+        <v>1236.448046332776</v>
       </c>
       <c r="V5" t="n">
-        <v>2335.254177533996</v>
+        <v>1236.448046332776</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.485522263882</v>
+        <v>1236.448046332776</v>
       </c>
       <c r="X5" t="n">
-        <v>1609.019764002803</v>
+        <v>862.9822880716961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.019764002803</v>
+        <v>862.9822880716961</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>814.4364638362431</v>
+        <v>842.8215887879518</v>
       </c>
       <c r="C6" t="n">
-        <v>814.4364638362431</v>
+        <v>668.3685595068248</v>
       </c>
       <c r="D6" t="n">
-        <v>665.5020541749918</v>
+        <v>519.4341498455735</v>
       </c>
       <c r="E6" t="n">
-        <v>506.2645991695364</v>
+        <v>360.196694840118</v>
       </c>
       <c r="F6" t="n">
-        <v>359.7300411964213</v>
+        <v>360.196694840118</v>
       </c>
       <c r="G6" t="n">
-        <v>221.650715410513</v>
+        <v>221.9156829040459</v>
       </c>
       <c r="H6" t="n">
-        <v>114.5736946799804</v>
+        <v>112.8907985653521</v>
       </c>
       <c r="I6" t="n">
-        <v>46.70508355067993</v>
+        <v>38.07816866944612</v>
       </c>
       <c r="J6" t="n">
-        <v>106.2934927243138</v>
+        <v>38.07816866944612</v>
       </c>
       <c r="K6" t="n">
-        <v>334.7604182190354</v>
+        <v>38.07816866944612</v>
       </c>
       <c r="L6" t="n">
-        <v>703.3667904032973</v>
+        <v>363.764445003403</v>
       </c>
       <c r="M6" t="n">
-        <v>1119.40856543856</v>
+        <v>795.8041894962025</v>
       </c>
       <c r="N6" t="n">
-        <v>1630.001477399121</v>
+        <v>1254.985753838801</v>
       </c>
       <c r="O6" t="n">
-        <v>2030.678561169768</v>
+        <v>1608.631498561039</v>
       </c>
       <c r="P6" t="n">
-        <v>2335.254177533996</v>
+        <v>1875.460318982826</v>
       </c>
       <c r="Q6" t="n">
-        <v>2335.254177533996</v>
+        <v>1903.908433472306</v>
       </c>
       <c r="R6" t="n">
-        <v>2274.534774328884</v>
+        <v>1903.908433472306</v>
       </c>
       <c r="S6" t="n">
-        <v>2113.21874968877</v>
+        <v>1903.908433472306</v>
       </c>
       <c r="T6" t="n">
-        <v>1913.658155755109</v>
+        <v>1903.908433472306</v>
       </c>
       <c r="U6" t="n">
-        <v>1887.653064786742</v>
+        <v>1680.886081506708</v>
       </c>
       <c r="V6" t="n">
-        <v>1652.500956554999</v>
+        <v>1680.886081506708</v>
       </c>
       <c r="W6" t="n">
-        <v>1398.263599826798</v>
+        <v>1426.648724778506</v>
       </c>
       <c r="X6" t="n">
-        <v>1190.412099621265</v>
+        <v>1218.797224572974</v>
       </c>
       <c r="Y6" t="n">
-        <v>982.6518008563112</v>
+        <v>1011.03692580802</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>604.5253780636253</v>
+        <v>457.201148090158</v>
       </c>
       <c r="C7" t="n">
-        <v>491.6247640433191</v>
+        <v>457.201148090158</v>
       </c>
       <c r="D7" t="n">
-        <v>341.5081246309834</v>
+        <v>332.8812097497496</v>
       </c>
       <c r="E7" t="n">
-        <v>193.5950310485903</v>
+        <v>184.9681161673565</v>
       </c>
       <c r="F7" t="n">
-        <v>46.70508355067993</v>
+        <v>38.07816866944612</v>
       </c>
       <c r="G7" t="n">
-        <v>46.70508355067993</v>
+        <v>38.07816866944612</v>
       </c>
       <c r="H7" t="n">
-        <v>46.70508355067993</v>
+        <v>38.07816866944612</v>
       </c>
       <c r="I7" t="n">
-        <v>46.70508355067993</v>
+        <v>38.07816866944612</v>
       </c>
       <c r="J7" t="n">
-        <v>46.70508355067993</v>
+        <v>38.07816866944612</v>
       </c>
       <c r="K7" t="n">
-        <v>86.85344825542506</v>
+        <v>58.97264266055542</v>
       </c>
       <c r="L7" t="n">
-        <v>193.755967082284</v>
+        <v>141.2368102565223</v>
       </c>
       <c r="M7" t="n">
-        <v>316.8588074405533</v>
+        <v>238.3619637935691</v>
       </c>
       <c r="N7" t="n">
-        <v>442.4691538253331</v>
+        <v>338.6123146867502</v>
       </c>
       <c r="O7" t="n">
-        <v>542.4743438208832</v>
+        <v>415.1934442115952</v>
       </c>
       <c r="P7" t="n">
-        <v>604.5253780636253</v>
+        <v>457.201148090158</v>
       </c>
       <c r="Q7" t="n">
-        <v>604.5253780636253</v>
+        <v>457.201148090158</v>
       </c>
       <c r="R7" t="n">
-        <v>604.5253780636253</v>
+        <v>457.201148090158</v>
       </c>
       <c r="S7" t="n">
-        <v>604.5253780636253</v>
+        <v>457.201148090158</v>
       </c>
       <c r="T7" t="n">
-        <v>604.5253780636253</v>
+        <v>457.201148090158</v>
       </c>
       <c r="U7" t="n">
-        <v>604.5253780636253</v>
+        <v>457.201148090158</v>
       </c>
       <c r="V7" t="n">
-        <v>604.5253780636253</v>
+        <v>457.201148090158</v>
       </c>
       <c r="W7" t="n">
-        <v>604.5253780636253</v>
+        <v>457.201148090158</v>
       </c>
       <c r="X7" t="n">
-        <v>604.5253780636253</v>
+        <v>457.201148090158</v>
       </c>
       <c r="Y7" t="n">
-        <v>604.5253780636253</v>
+        <v>457.201148090158</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2012.594115414703</v>
+        <v>1594.130824306948</v>
       </c>
       <c r="C8" t="n">
-        <v>1643.631598474292</v>
+        <v>1225.168307366536</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.365899867541</v>
+        <v>1225.168307366536</v>
       </c>
       <c r="E8" t="n">
-        <v>899.5776472692969</v>
+        <v>1037.263182137612</v>
       </c>
       <c r="F8" t="n">
-        <v>488.5917424796893</v>
+        <v>626.2772773480049</v>
       </c>
       <c r="G8" t="n">
         <v>208.2591977411877</v>
@@ -4801,22 +4801,22 @@
         <v>208.2591977411877</v>
       </c>
       <c r="I8" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>163.9542135250761</v>
+        <v>163.954213525076</v>
       </c>
       <c r="K8" t="n">
-        <v>451.4388660156269</v>
+        <v>451.4388660156264</v>
       </c>
       <c r="L8" t="n">
-        <v>860.3656261042777</v>
+        <v>860.3656261042772</v>
       </c>
       <c r="M8" t="n">
         <v>1331.98198392721</v>
       </c>
       <c r="N8" t="n">
-        <v>1796.597589933626</v>
+        <v>1796.597589933625</v>
       </c>
       <c r="O8" t="n">
         <v>2190.133293907378</v>
@@ -4831,25 +4831,25 @@
         <v>2576.608155084932</v>
       </c>
       <c r="S8" t="n">
-        <v>2399.193955478825</v>
+        <v>2576.608155084932</v>
       </c>
       <c r="T8" t="n">
-        <v>2399.193955478825</v>
+        <v>2357.735914543839</v>
       </c>
       <c r="U8" t="n">
-        <v>2399.193955478825</v>
+        <v>2357.735914543839</v>
       </c>
       <c r="V8" t="n">
-        <v>2399.193955478825</v>
+        <v>2357.735914543839</v>
       </c>
       <c r="W8" t="n">
-        <v>2399.193955478825</v>
+        <v>2357.735914543839</v>
       </c>
       <c r="X8" t="n">
-        <v>2399.193955478825</v>
+        <v>1984.27015628276</v>
       </c>
       <c r="Y8" t="n">
-        <v>2399.193955478825</v>
+        <v>1594.130824306948</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>923.9336516275457</v>
+        <v>923.9336516275453</v>
       </c>
       <c r="C9" t="n">
-        <v>749.4806223464187</v>
+        <v>749.4806223464183</v>
       </c>
       <c r="D9" t="n">
-        <v>600.5462126851675</v>
+        <v>600.546212685167</v>
       </c>
       <c r="E9" t="n">
-        <v>441.308757679712</v>
+        <v>441.3087576797115</v>
       </c>
       <c r="F9" t="n">
-        <v>294.774199706597</v>
+        <v>294.7741997065965</v>
       </c>
       <c r="G9" t="n">
-        <v>156.8350488377093</v>
+        <v>156.8350488377089</v>
       </c>
       <c r="H9" t="n">
         <v>115.7433328679813</v>
       </c>
       <c r="I9" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>125.2692395929873</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K9" t="n">
-        <v>375.9209001909729</v>
+        <v>303.3525801375985</v>
       </c>
       <c r="L9" t="n">
-        <v>774.3573864879295</v>
+        <v>701.789066434555</v>
       </c>
       <c r="M9" t="n">
-        <v>1291.293194601828</v>
+        <v>1218.724874548453</v>
       </c>
       <c r="N9" t="n">
-        <v>1837.617768753454</v>
+        <v>1765.04944870008</v>
       </c>
       <c r="O9" t="n">
-        <v>2270.982342682092</v>
+        <v>2198.414022628717</v>
       </c>
       <c r="P9" t="n">
-        <v>2466.605882380167</v>
+        <v>2529.224231624771</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R9" t="n">
-        <v>2583.029714676167</v>
+        <v>2583.029714676166</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.317377639486</v>
+        <v>2424.317377639485</v>
       </c>
       <c r="T9" t="n">
-        <v>2225.321786989781</v>
+        <v>2225.32178698978</v>
       </c>
       <c r="U9" t="n">
-        <v>1997.150252578045</v>
+        <v>1997.150252578044</v>
       </c>
       <c r="V9" t="n">
         <v>1761.998144346302</v>
@@ -4925,10 +4925,10 @@
         <v>1507.7607876181</v>
       </c>
       <c r="X9" t="n">
-        <v>1299.909287412568</v>
+        <v>1299.909287412567</v>
       </c>
       <c r="Y9" t="n">
-        <v>1092.148988647614</v>
+        <v>1092.148988647613</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>706.9179404428211</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C10" t="n">
-        <v>706.9179404428211</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D10" t="n">
-        <v>706.9179404428211</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E10" t="n">
-        <v>559.004846860428</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F10" t="n">
-        <v>412.1148993625176</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>395.1044150603093</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>237.1395992787641</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>100.0785880173293</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K10" t="n">
         <v>106.2310287563994</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1156.974333471088</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="C11" t="n">
-        <v>788.0118165306759</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="D11" t="n">
-        <v>788.0118165306759</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="E11" t="n">
-        <v>788.0118165306759</v>
+        <v>1293.488234548518</v>
       </c>
       <c r="F11" t="n">
-        <v>788.0118165306759</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G11" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H11" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I11" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J11" t="n">
-        <v>73.93516953299616</v>
+        <v>76.07976811573525</v>
       </c>
       <c r="K11" t="n">
-        <v>477.4022825530416</v>
+        <v>479.5468811357807</v>
       </c>
       <c r="L11" t="n">
-        <v>1030.215540799241</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M11" t="n">
-        <v>1216.914953624649</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N11" t="n">
-        <v>1844.222621684495</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O11" t="n">
-        <v>2391.383826451573</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P11" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q11" t="n">
         <v>2635.045976980643</v>
@@ -5068,25 +5068,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S11" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T11" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U11" t="n">
-        <v>2381.354273725794</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V11" t="n">
-        <v>2286.482160781135</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W11" t="n">
-        <v>1933.713505511021</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="X11" t="n">
-        <v>1933.713505511021</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="Y11" t="n">
-        <v>1543.574173535209</v>
+        <v>1679.276487146762</v>
       </c>
     </row>
     <row r="12">
@@ -5096,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D12" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E12" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F12" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J12" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K12" t="n">
-        <v>500.7885757023184</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L12" t="n">
         <v>1005.150115568437</v>
       </c>
       <c r="M12" t="n">
-        <v>1184.647451923042</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N12" t="n">
-        <v>1430.928743686616</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P12" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q12" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R12" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S12" t="n">
         <v>2464.467288245464</v>
@@ -5153,19 +5153,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U12" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V12" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y12" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.70091953961286</v>
+        <v>362.5212771474588</v>
       </c>
       <c r="C13" t="n">
-        <v>52.70091953961286</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="D13" t="n">
-        <v>52.70091953961286</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70091953961286</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="F13" t="n">
-        <v>52.70091953961286</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="G13" t="n">
-        <v>52.70091953961286</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H13" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I13" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J13" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7488491352227</v>
@@ -5226,25 +5226,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>1050.156331753472</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T13" t="n">
-        <v>824.5271350658372</v>
+        <v>845.195316251363</v>
       </c>
       <c r="U13" t="n">
-        <v>535.3749586435171</v>
+        <v>845.195316251363</v>
       </c>
       <c r="V13" t="n">
-        <v>280.6904704376302</v>
+        <v>590.5108280454762</v>
       </c>
       <c r="W13" t="n">
-        <v>280.6904704376302</v>
+        <v>590.5108280454762</v>
       </c>
       <c r="X13" t="n">
-        <v>52.70091953961286</v>
+        <v>362.5212771474588</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.70091953961286</v>
+        <v>362.5212771474588</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>849.4750769274647</v>
+        <v>1338.130564467765</v>
       </c>
       <c r="C14" t="n">
-        <v>849.4750769274647</v>
+        <v>969.1680475273538</v>
       </c>
       <c r="D14" t="n">
-        <v>849.4750769274647</v>
+        <v>969.1680475273538</v>
       </c>
       <c r="E14" t="n">
-        <v>463.6868243292204</v>
+        <v>583.3797949291096</v>
       </c>
       <c r="F14" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="G14" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H14" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J14" t="n">
-        <v>171.878874790945</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K14" t="n">
-        <v>575.3459878109904</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L14" t="n">
-        <v>1128.15924605719</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M14" t="n">
-        <v>1314.858658882597</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N14" t="n">
-        <v>1942.166326942444</v>
+        <v>1578.654815536984</v>
       </c>
       <c r="O14" t="n">
-        <v>2489.327531709521</v>
+        <v>2125.816020304062</v>
       </c>
       <c r="P14" t="n">
-        <v>2600.061856959048</v>
+        <v>2555.131066643356</v>
       </c>
       <c r="Q14" t="n">
         <v>2635.045976980643</v>
@@ -5305,25 +5305,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>2545.542756304337</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T14" t="n">
-        <v>2330.742894572048</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U14" t="n">
-        <v>2330.742894572048</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V14" t="n">
-        <v>1999.680007228478</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="W14" t="n">
-        <v>1999.680007228478</v>
+        <v>2028.585618455679</v>
       </c>
       <c r="X14" t="n">
-        <v>1626.214248967398</v>
+        <v>1728.269896443577</v>
       </c>
       <c r="Y14" t="n">
-        <v>1236.074916991586</v>
+        <v>1338.130564467765</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D15" t="n">
         <v>642.7351650238404</v>
@@ -5348,13 +5348,13 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G15" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H15" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J15" t="n">
         <v>171.3601713965085</v>
@@ -5369,10 +5369,10 @@
         <v>1184.647451923042</v>
       </c>
       <c r="N15" t="n">
-        <v>1430.928743686616</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P15" t="n">
         <v>2404.332520920175</v>
@@ -5381,7 +5381,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R15" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S15" t="n">
         <v>2464.467288245464</v>
@@ -5396,10 +5396,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y15" t="n">
         <v>1134.337940986287</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="C16" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="D16" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F16" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G16" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H16" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I16" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J16" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7488491352227</v>
@@ -5463,25 +5463,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S16" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T16" t="n">
-        <v>631.2702659988937</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U16" t="n">
-        <v>342.1180895765735</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V16" t="n">
-        <v>342.1180895765735</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W16" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="X16" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>958.4441888434862</v>
+        <v>1075.425926324732</v>
       </c>
       <c r="C17" t="n">
-        <v>589.4816719030746</v>
+        <v>1075.425926324732</v>
       </c>
       <c r="D17" t="n">
-        <v>589.4816719030746</v>
+        <v>855.5769539014296</v>
       </c>
       <c r="E17" t="n">
-        <v>589.4816719030746</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F17" t="n">
-        <v>589.4816719030746</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G17" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H17" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I17" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J17" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K17" t="n">
-        <v>323.9039731279416</v>
+        <v>256.7652667212221</v>
       </c>
       <c r="L17" t="n">
-        <v>876.7172313741407</v>
+        <v>809.5785249674213</v>
       </c>
       <c r="M17" t="n">
-        <v>1063.416644199549</v>
+        <v>996.277937792829</v>
       </c>
       <c r="N17" t="n">
-        <v>1690.724312259395</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O17" t="n">
-        <v>2237.885517026472</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P17" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q17" t="n">
         <v>2635.045976980643</v>
@@ -5542,25 +5542,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S17" t="n">
-        <v>2518.064239499396</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T17" t="n">
-        <v>2303.264377767107</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U17" t="n">
-        <v>2049.572674512258</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V17" t="n">
-        <v>1718.509787168688</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W17" t="n">
-        <v>1718.509787168688</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="X17" t="n">
-        <v>1345.044028907608</v>
+        <v>1462.025766388854</v>
       </c>
       <c r="Y17" t="n">
-        <v>1345.044028907608</v>
+        <v>1462.025766388854</v>
       </c>
     </row>
     <row r="18">
@@ -5570,55 +5570,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D18" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E18" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F18" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I18" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J18" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K18" t="n">
-        <v>295.3416275592184</v>
+        <v>477.2888087846891</v>
       </c>
       <c r="L18" t="n">
-        <v>799.7031674253369</v>
+        <v>981.6503486508077</v>
       </c>
       <c r="M18" t="n">
-        <v>1440.248516892442</v>
+        <v>1622.195698117912</v>
       </c>
       <c r="N18" t="n">
-        <v>1638.905258545106</v>
+        <v>1820.852439770577</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P18" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q18" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R18" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S18" t="n">
         <v>2464.467288245464</v>
@@ -5627,19 +5627,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U18" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V18" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y18" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.0928987823404</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="C19" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D19" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E19" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F19" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G19" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H19" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I19" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J19" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K19" t="n">
         <v>153.7488491352227</v>
@@ -5706,19 +5706,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U19" t="n">
-        <v>1052.635600998958</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V19" t="n">
-        <v>797.9511127930708</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W19" t="n">
-        <v>508.5339427561102</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X19" t="n">
-        <v>508.5339427561102</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y19" t="n">
-        <v>287.7413636125801</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1156.974333471088</v>
+        <v>1165.717387685019</v>
       </c>
       <c r="C20" t="n">
-        <v>788.0118165306759</v>
+        <v>796.7548707446076</v>
       </c>
       <c r="D20" t="n">
-        <v>788.0118165306759</v>
+        <v>438.4891721378571</v>
       </c>
       <c r="E20" t="n">
-        <v>788.0118165306759</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F20" t="n">
-        <v>788.0118165306759</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G20" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H20" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I20" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J20" t="n">
         <v>241.3408185533492</v>
       </c>
       <c r="K20" t="n">
-        <v>323.9039731279416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L20" t="n">
-        <v>531.3604655063299</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M20" t="n">
-        <v>1163.078276489642</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N20" t="n">
-        <v>1790.385944549488</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O20" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P20" t="n">
         <v>2389.870016205742</v>
@@ -5779,25 +5779,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S20" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U20" t="n">
-        <v>2273.348078978093</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V20" t="n">
-        <v>2273.348078978093</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W20" t="n">
-        <v>1920.579423707979</v>
+        <v>2315.922317986033</v>
       </c>
       <c r="X20" t="n">
-        <v>1547.113665446899</v>
+        <v>1942.456559724953</v>
       </c>
       <c r="Y20" t="n">
-        <v>1156.974333471088</v>
+        <v>1552.317227749141</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D21" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E21" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F21" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G21" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H21" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I21" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J21" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K21" t="n">
-        <v>295.3416275592179</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L21" t="n">
-        <v>799.7031674253365</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M21" t="n">
-        <v>1440.248516892441</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N21" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P21" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q21" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R21" t="n">
         <v>2613.934077382829</v>
@@ -5864,7 +5864,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U21" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V21" t="n">
         <v>1804.187096684975</v>
@@ -5876,7 +5876,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y21" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K22" t="n">
         <v>153.7488491352227</v>
@@ -5934,28 +5934,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R22" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S22" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T22" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U22" t="n">
-        <v>1052.635600998958</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V22" t="n">
-        <v>972.5486844483607</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W22" t="n">
-        <v>683.1315144114001</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X22" t="n">
-        <v>455.1419635133827</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y22" t="n">
-        <v>234.3493843698526</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2134.774920425096</v>
+        <v>2003.52207695416</v>
       </c>
       <c r="C23" t="n">
-        <v>1765.812403484685</v>
+        <v>1673.049613922568</v>
       </c>
       <c r="D23" t="n">
-        <v>1407.546704877934</v>
+        <v>1314.783915315817</v>
       </c>
       <c r="E23" t="n">
-        <v>1021.75845227969</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="F23" t="n">
-        <v>610.7725474900824</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G23" t="n">
-        <v>193.6847657265099</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="H23" t="n">
         <v>193.6847657265099</v>
@@ -5995,7 +5995,7 @@
         <v>666.0988071604024</v>
       </c>
       <c r="L23" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M23" t="n">
         <v>1850.629876389914</v>
@@ -6004,7 +6004,7 @@
         <v>2477.93754444976</v>
       </c>
       <c r="O23" t="n">
-        <v>3025.098749216838</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P23" t="n">
         <v>3454.413795556132</v>
@@ -6016,25 +6016,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S23" t="n">
-        <v>3543.374718827861</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T23" t="n">
-        <v>3543.374718827861</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="U23" t="n">
-        <v>3289.683015573012</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="V23" t="n">
-        <v>2958.620128229441</v>
+        <v>3153.727007255173</v>
       </c>
       <c r="W23" t="n">
-        <v>2605.851472959327</v>
+        <v>3153.727007255173</v>
       </c>
       <c r="X23" t="n">
-        <v>2521.374760489218</v>
+        <v>2780.261248994093</v>
       </c>
       <c r="Y23" t="n">
-        <v>2521.374760489218</v>
+        <v>2390.121917018282</v>
       </c>
     </row>
     <row r="24">
@@ -6077,16 +6077,16 @@
         <v>1026.440991155445</v>
       </c>
       <c r="M24" t="n">
-        <v>1253.562877620958</v>
+        <v>1205.93832751005</v>
       </c>
       <c r="N24" t="n">
-        <v>1452.219619273623</v>
+        <v>1879.144019762832</v>
       </c>
       <c r="O24" t="n">
-        <v>2001.655628026346</v>
+        <v>2038.656332431593</v>
       </c>
       <c r="P24" t="n">
-        <v>2425.623396507182</v>
+        <v>2462.62410091243</v>
       </c>
       <c r="Q24" t="n">
         <v>2656.33685256765</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.3571301266846</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="C25" t="n">
-        <v>495.3571301266846</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="D25" t="n">
-        <v>345.2404907143489</v>
+        <v>221.9048887090138</v>
       </c>
       <c r="E25" t="n">
-        <v>220.881742624531</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F25" t="n">
         <v>73.99179512662066</v>
@@ -6183,16 +6183,16 @@
         <v>784.7743001636452</v>
       </c>
       <c r="V25" t="n">
-        <v>784.7743001636452</v>
+        <v>530.0898119577583</v>
       </c>
       <c r="W25" t="n">
-        <v>495.3571301266846</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="X25" t="n">
-        <v>495.3571301266846</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="Y25" t="n">
-        <v>495.3571301266846</v>
+        <v>240.6726419207977</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2452.998035652587</v>
+        <v>2134.774920425096</v>
       </c>
       <c r="C26" t="n">
-        <v>2084.035518712175</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D26" t="n">
-        <v>1725.769820105425</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E26" t="n">
-        <v>1339.98156750718</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F26" t="n">
-        <v>928.9956627175729</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G26" t="n">
-        <v>511.9078809540003</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H26" t="n">
         <v>193.6847657265099</v>
@@ -6232,7 +6232,7 @@
         <v>666.0988071604024</v>
       </c>
       <c r="L26" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M26" t="n">
         <v>1850.629876389914</v>
@@ -6241,7 +6241,7 @@
         <v>2477.93754444976</v>
       </c>
       <c r="O26" t="n">
-        <v>3025.098749216838</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P26" t="n">
         <v>3454.413795556132</v>
@@ -6256,22 +6256,22 @@
         <v>3699.589756331033</v>
       </c>
       <c r="T26" t="n">
-        <v>3699.589756331033</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="U26" t="n">
-        <v>3699.589756331033</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="V26" t="n">
-        <v>3699.589756331033</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="W26" t="n">
-        <v>3346.821101060918</v>
+        <v>3132.02123932863</v>
       </c>
       <c r="X26" t="n">
-        <v>3229.737207692521</v>
+        <v>2758.55548106755</v>
       </c>
       <c r="Y26" t="n">
-        <v>2839.597875716709</v>
+        <v>2368.416149091738</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>1026.440991155445</v>
       </c>
       <c r="M27" t="n">
-        <v>1253.562877620958</v>
+        <v>1205.93832751005</v>
       </c>
       <c r="N27" t="n">
         <v>1452.219619273623</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.99179512662066</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="C28" t="n">
-        <v>73.99179512662066</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="D28" t="n">
-        <v>73.99179512662066</v>
+        <v>221.9048887090138</v>
       </c>
       <c r="E28" t="n">
         <v>73.99179512662066</v>
@@ -6414,22 +6414,22 @@
         <v>1073.926476585965</v>
       </c>
       <c r="T28" t="n">
-        <v>907.2456297917884</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U28" t="n">
-        <v>618.0934533694682</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="V28" t="n">
-        <v>363.4089651635813</v>
+        <v>530.0898119577583</v>
       </c>
       <c r="W28" t="n">
-        <v>73.99179512662066</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="X28" t="n">
-        <v>73.99179512662066</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.99179512662066</v>
+        <v>240.6726419207977</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2094.732337045837</v>
+        <v>1924.67822353971</v>
       </c>
       <c r="C29" t="n">
-        <v>1725.769820105425</v>
+        <v>1555.715706599298</v>
       </c>
       <c r="D29" t="n">
-        <v>1725.769820105425</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E29" t="n">
-        <v>1339.98156750718</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F29" t="n">
-        <v>928.9956627175729</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G29" t="n">
-        <v>511.9078809540003</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H29" t="n">
         <v>193.6847657265099</v>
@@ -6478,7 +6478,7 @@
         <v>2477.93754444976</v>
       </c>
       <c r="O29" t="n">
-        <v>3025.098749216838</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P29" t="n">
         <v>3454.413795556132</v>
@@ -6490,25 +6490,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S29" t="n">
-        <v>3699.589756331033</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T29" t="n">
-        <v>3484.789894598744</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U29" t="n">
-        <v>3484.789894598744</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="V29" t="n">
-        <v>3484.789894598744</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="W29" t="n">
-        <v>3244.93726734685</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="X29" t="n">
-        <v>2871.47150908577</v>
+        <v>2701.417395579643</v>
       </c>
       <c r="Y29" t="n">
-        <v>2481.332177109959</v>
+        <v>2311.278063603831</v>
       </c>
     </row>
     <row r="30">
@@ -6551,16 +6551,16 @@
         <v>1026.440991155445</v>
       </c>
       <c r="M30" t="n">
-        <v>1253.562877620958</v>
+        <v>1205.93832751005</v>
       </c>
       <c r="N30" t="n">
-        <v>1452.219619273623</v>
+        <v>1879.144019762832</v>
       </c>
       <c r="O30" t="n">
-        <v>2001.655628026346</v>
+        <v>2038.656332431593</v>
       </c>
       <c r="P30" t="n">
-        <v>2425.623396507182</v>
+        <v>2462.62410091243</v>
       </c>
       <c r="Q30" t="n">
         <v>2656.33685256765</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.8113935082914</v>
+        <v>242.9279780545276</v>
       </c>
       <c r="C31" t="n">
-        <v>188.8113935082914</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D31" t="n">
-        <v>188.8113935082914</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E31" t="n">
-        <v>188.8113935082914</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F31" t="n">
-        <v>188.8113935082914</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G31" t="n">
         <v>73.99179512662066</v>
@@ -6654,19 +6654,19 @@
         <v>1073.926476585965</v>
       </c>
       <c r="U31" t="n">
-        <v>1073.926476585965</v>
+        <v>787.0296362973751</v>
       </c>
       <c r="V31" t="n">
-        <v>819.2419883800786</v>
+        <v>532.3451480914882</v>
       </c>
       <c r="W31" t="n">
-        <v>819.2419883800786</v>
+        <v>242.9279780545276</v>
       </c>
       <c r="X31" t="n">
-        <v>591.2524374820613</v>
+        <v>242.9279780545276</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.4598583385311</v>
+        <v>242.9279780545276</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2003.52207695416</v>
+        <v>1711.147069235258</v>
       </c>
       <c r="C32" t="n">
-        <v>1634.559560013748</v>
+        <v>1711.147069235258</v>
       </c>
       <c r="D32" t="n">
-        <v>1276.293861406998</v>
+        <v>1711.147069235258</v>
       </c>
       <c r="E32" t="n">
-        <v>890.5056088087535</v>
+        <v>1325.358816637014</v>
       </c>
       <c r="F32" t="n">
-        <v>890.5056088087535</v>
+        <v>914.3729118474062</v>
       </c>
       <c r="G32" t="n">
-        <v>473.417827045181</v>
+        <v>497.2851300838336</v>
       </c>
       <c r="H32" t="n">
-        <v>193.6847657265099</v>
+        <v>179.0620148563431</v>
       </c>
       <c r="I32" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J32" t="n">
-        <v>262.631694140357</v>
+        <v>80.60329424983722</v>
       </c>
       <c r="K32" t="n">
-        <v>666.0988071604024</v>
+        <v>484.0704072698827</v>
       </c>
       <c r="L32" t="n">
-        <v>1218.912065406601</v>
+        <v>1036.883665516082</v>
       </c>
       <c r="M32" t="n">
-        <v>1850.629876389914</v>
+        <v>1668.601476499394</v>
       </c>
       <c r="N32" t="n">
-        <v>2477.93754444976</v>
+        <v>2295.90914455924</v>
       </c>
       <c r="O32" t="n">
-        <v>3025.098749216838</v>
+        <v>2822.733767551575</v>
       </c>
       <c r="P32" t="n">
-        <v>3454.413795556132</v>
+        <v>2933.468092801101</v>
       </c>
       <c r="Q32" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="R32" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="S32" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="T32" t="n">
-        <v>3484.789894598744</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="U32" t="n">
-        <v>3484.789894598744</v>
+        <v>2714.760509567847</v>
       </c>
       <c r="V32" t="n">
-        <v>3153.727007255173</v>
+        <v>2714.760509567847</v>
       </c>
       <c r="W32" t="n">
-        <v>3153.727007255173</v>
+        <v>2714.760509567847</v>
       </c>
       <c r="X32" t="n">
-        <v>2780.261248994093</v>
+        <v>2487.886241275191</v>
       </c>
       <c r="Y32" t="n">
-        <v>2390.121917018282</v>
+        <v>2097.74690929938</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4134795532265</v>
+        <v>972.7907286830597</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9604502720995</v>
+        <v>798.3376994019327</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0260406108482</v>
+        <v>649.4032897406814</v>
       </c>
       <c r="E33" t="n">
-        <v>504.7885856053927</v>
+        <v>490.165834735226</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2540276322777</v>
+        <v>343.6312767621109</v>
       </c>
       <c r="G33" t="n">
-        <v>220.8126299914996</v>
+        <v>206.1898791213329</v>
       </c>
       <c r="H33" t="n">
-        <v>119.8966521363042</v>
+        <v>105.2739012661374</v>
       </c>
       <c r="I33" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J33" t="n">
-        <v>192.6510469835163</v>
+        <v>178.0282961133496</v>
       </c>
       <c r="K33" t="n">
-        <v>522.0794512893262</v>
+        <v>507.4567004191595</v>
       </c>
       <c r="L33" t="n">
-        <v>1026.440991155445</v>
+        <v>1011.818240285278</v>
       </c>
       <c r="M33" t="n">
-        <v>1253.562877620958</v>
+        <v>1191.315576639883</v>
       </c>
       <c r="N33" t="n">
-        <v>1452.219619273623</v>
+        <v>1437.596868403456</v>
       </c>
       <c r="O33" t="n">
-        <v>2001.655628026346</v>
+        <v>1987.032877156179</v>
       </c>
       <c r="P33" t="n">
-        <v>2425.623396507182</v>
+        <v>2411.000645637016</v>
       </c>
       <c r="Q33" t="n">
-        <v>2656.33685256765</v>
+        <v>2641.714101697483</v>
       </c>
       <c r="R33" t="n">
-        <v>2635.224952969837</v>
+        <v>2620.60220209967</v>
       </c>
       <c r="S33" t="n">
-        <v>2485.758163832472</v>
+        <v>2471.135412962305</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.76886799256</v>
+        <v>2274.146117122393</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.630080503725</v>
+        <v>2046.007329633559</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.477972271983</v>
+        <v>1810.855221401816</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.240615543781</v>
+        <v>1556.617864673614</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.389115338248</v>
+        <v>1348.766364468082</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.628816573294</v>
+        <v>1141.006065703128</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>224.1084345389564</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="C34" t="n">
-        <v>224.1084345389564</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="D34" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="E34" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="F34" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="G34" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="H34" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="I34" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J34" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="K34" t="n">
-        <v>175.0397247222305</v>
+        <v>160.4169738520637</v>
       </c>
       <c r="L34" t="n">
-        <v>359.8727196230489</v>
+        <v>345.2499687528821</v>
       </c>
       <c r="M34" t="n">
-        <v>565.1423203422868</v>
+        <v>550.5195694721201</v>
       </c>
       <c r="N34" t="n">
-        <v>770.9656851783911</v>
+        <v>756.3429343082244</v>
       </c>
       <c r="O34" t="n">
-        <v>945.06058056699</v>
+        <v>930.4378296968232</v>
       </c>
       <c r="P34" t="n">
-        <v>1070.508157165606</v>
+        <v>1055.885406295439</v>
       </c>
       <c r="Q34" t="n">
-        <v>1073.926476585965</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="R34" t="n">
-        <v>1073.926476585965</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="S34" t="n">
-        <v>1073.926476585965</v>
+        <v>892.6228789216216</v>
       </c>
       <c r="T34" t="n">
-        <v>1073.926476585965</v>
+        <v>892.6228789216216</v>
       </c>
       <c r="U34" t="n">
-        <v>1073.926476585965</v>
+        <v>603.4707024993014</v>
       </c>
       <c r="V34" t="n">
-        <v>819.2419883800786</v>
+        <v>348.7862142934146</v>
       </c>
       <c r="W34" t="n">
-        <v>672.8905645805038</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="X34" t="n">
-        <v>444.9010136824865</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.1084345389564</v>
+        <v>59.36904425645393</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2173.309270066006</v>
+        <v>1683.624515243764</v>
       </c>
       <c r="C35" t="n">
-        <v>1804.346753125594</v>
+        <v>1683.624515243764</v>
       </c>
       <c r="D35" t="n">
-        <v>1446.081054518844</v>
+        <v>1325.358816637014</v>
       </c>
       <c r="E35" t="n">
-        <v>1060.292801920599</v>
+        <v>1325.358816637014</v>
       </c>
       <c r="F35" t="n">
-        <v>649.306897130992</v>
+        <v>914.3729118474062</v>
       </c>
       <c r="G35" t="n">
-        <v>392.2149103541112</v>
+        <v>497.2851300838336</v>
       </c>
       <c r="H35" t="n">
-        <v>73.99179512662066</v>
+        <v>179.0620148563431</v>
       </c>
       <c r="I35" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J35" t="n">
-        <v>262.631694140357</v>
+        <v>248.0089432701903</v>
       </c>
       <c r="K35" t="n">
-        <v>666.0988071604024</v>
+        <v>651.4760562902358</v>
       </c>
       <c r="L35" t="n">
-        <v>1218.912065406602</v>
+        <v>1204.289314536435</v>
       </c>
       <c r="M35" t="n">
-        <v>1850.629876389914</v>
+        <v>1390.988727361843</v>
       </c>
       <c r="N35" t="n">
-        <v>2477.93754444976</v>
+        <v>1746.800000941424</v>
       </c>
       <c r="O35" t="n">
-        <v>3025.098749216837</v>
+        <v>2293.961205708501</v>
       </c>
       <c r="P35" t="n">
-        <v>3454.413795556132</v>
+        <v>2723.276252047795</v>
       </c>
       <c r="Q35" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="R35" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="S35" t="n">
-        <v>3543.374718827861</v>
+        <v>2812.237175319524</v>
       </c>
       <c r="T35" t="n">
-        <v>3543.374718827861</v>
+        <v>2597.437313587236</v>
       </c>
       <c r="U35" t="n">
-        <v>3289.683015573012</v>
+        <v>2343.745610332387</v>
       </c>
       <c r="V35" t="n">
-        <v>3289.683015573012</v>
+        <v>2012.682722988816</v>
       </c>
       <c r="W35" t="n">
-        <v>2936.914360302897</v>
+        <v>2012.682722988816</v>
       </c>
       <c r="X35" t="n">
-        <v>2563.448602041818</v>
+        <v>2012.682722988816</v>
       </c>
       <c r="Y35" t="n">
-        <v>2173.309270066006</v>
+        <v>2012.682722988816</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4134795532265</v>
+        <v>972.7907286830597</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9604502720995</v>
+        <v>798.3376994019327</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0260406108482</v>
+        <v>649.4032897406814</v>
       </c>
       <c r="E36" t="n">
-        <v>504.7885856053927</v>
+        <v>490.165834735226</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2540276322777</v>
+        <v>343.6312767621109</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8126299914996</v>
+        <v>206.1898791213329</v>
       </c>
       <c r="H36" t="n">
-        <v>119.8966521363042</v>
+        <v>105.2739012661374</v>
       </c>
       <c r="I36" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J36" t="n">
-        <v>192.6510469835163</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="K36" t="n">
-        <v>522.0794512893262</v>
+        <v>376.5399247518371</v>
       </c>
       <c r="L36" t="n">
-        <v>1026.440991155445</v>
+        <v>513.769522767531</v>
       </c>
       <c r="M36" t="n">
-        <v>1253.562877620958</v>
+        <v>1154.314872234636</v>
       </c>
       <c r="N36" t="n">
-        <v>1452.219619273623</v>
+        <v>1827.520564487418</v>
       </c>
       <c r="O36" t="n">
-        <v>2001.655628026346</v>
+        <v>1987.032877156179</v>
       </c>
       <c r="P36" t="n">
-        <v>2425.623396507182</v>
+        <v>2411.000645637016</v>
       </c>
       <c r="Q36" t="n">
-        <v>2656.33685256765</v>
+        <v>2641.714101697483</v>
       </c>
       <c r="R36" t="n">
-        <v>2635.224952969837</v>
+        <v>2620.60220209967</v>
       </c>
       <c r="S36" t="n">
-        <v>2485.758163832472</v>
+        <v>2471.135412962305</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.76886799256</v>
+        <v>2274.146117122393</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.630080503725</v>
+        <v>2046.007329633559</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.477972271983</v>
+        <v>1810.855221401816</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.240615543781</v>
+        <v>1556.617864673614</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.389115338248</v>
+        <v>1348.766364468082</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.628816573294</v>
+        <v>1141.006065703128</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.8113935082914</v>
+        <v>647.2906049670478</v>
       </c>
       <c r="C37" t="n">
-        <v>73.99179512662066</v>
+        <v>647.2906049670478</v>
       </c>
       <c r="D37" t="n">
-        <v>73.99179512662066</v>
+        <v>647.2906049670478</v>
       </c>
       <c r="E37" t="n">
-        <v>73.99179512662066</v>
+        <v>499.3775113846547</v>
       </c>
       <c r="F37" t="n">
-        <v>73.99179512662066</v>
+        <v>352.4875638867443</v>
       </c>
       <c r="G37" t="n">
-        <v>73.99179512662066</v>
+        <v>183.8807188821276</v>
       </c>
       <c r="H37" t="n">
-        <v>73.99179512662066</v>
+        <v>183.8807188821276</v>
       </c>
       <c r="I37" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J37" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="K37" t="n">
-        <v>175.0397247222305</v>
+        <v>160.4169738520637</v>
       </c>
       <c r="L37" t="n">
-        <v>359.8727196230489</v>
+        <v>345.2499687528821</v>
       </c>
       <c r="M37" t="n">
-        <v>565.1423203422868</v>
+        <v>550.5195694721201</v>
       </c>
       <c r="N37" t="n">
-        <v>770.9656851783911</v>
+        <v>756.3429343082244</v>
       </c>
       <c r="O37" t="n">
-        <v>945.06058056699</v>
+        <v>930.4378296968232</v>
       </c>
       <c r="P37" t="n">
-        <v>1070.508157165606</v>
+        <v>1055.885406295439</v>
       </c>
       <c r="Q37" t="n">
-        <v>1073.926476585965</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="R37" t="n">
-        <v>1073.926476585965</v>
+        <v>928.8257644352013</v>
       </c>
       <c r="S37" t="n">
-        <v>1073.926476585965</v>
+        <v>928.8257644352013</v>
       </c>
       <c r="T37" t="n">
-        <v>1073.926476585965</v>
+        <v>928.8257644352013</v>
       </c>
       <c r="U37" t="n">
-        <v>1073.926476585965</v>
+        <v>928.8257644352013</v>
       </c>
       <c r="V37" t="n">
-        <v>819.2419883800786</v>
+        <v>928.8257644352013</v>
       </c>
       <c r="W37" t="n">
-        <v>819.2419883800786</v>
+        <v>875.2801558650651</v>
       </c>
       <c r="X37" t="n">
-        <v>591.2524374820613</v>
+        <v>647.2906049670478</v>
       </c>
       <c r="Y37" t="n">
-        <v>370.4598583385311</v>
+        <v>647.2906049670478</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1455.646542658313</v>
+        <v>1235.943550948882</v>
       </c>
       <c r="C38" t="n">
-        <v>1086.684025717902</v>
+        <v>1235.943550948882</v>
       </c>
       <c r="D38" t="n">
-        <v>728.4183271111513</v>
+        <v>877.6778523421319</v>
       </c>
       <c r="E38" t="n">
-        <v>342.630074512907</v>
+        <v>491.8895997438877</v>
       </c>
       <c r="F38" t="n">
-        <v>342.630074512907</v>
+        <v>491.8895997438877</v>
       </c>
       <c r="G38" t="n">
-        <v>73.99179512662066</v>
+        <v>74.80181798031515</v>
       </c>
       <c r="H38" t="n">
-        <v>73.99179512662066</v>
+        <v>74.80181798031515</v>
       </c>
       <c r="I38" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J38" t="n">
-        <v>262.631694140357</v>
+        <v>248.0089432701903</v>
       </c>
       <c r="K38" t="n">
-        <v>666.0988071604024</v>
+        <v>651.4760562902358</v>
       </c>
       <c r="L38" t="n">
-        <v>1218.912065406602</v>
+        <v>1204.289314536435</v>
       </c>
       <c r="M38" t="n">
-        <v>1850.629876389914</v>
+        <v>1390.988727361843</v>
       </c>
       <c r="N38" t="n">
-        <v>2477.93754444976</v>
+        <v>1746.800000941424</v>
       </c>
       <c r="O38" t="n">
-        <v>3025.098749216837</v>
+        <v>2293.961205708501</v>
       </c>
       <c r="P38" t="n">
-        <v>3454.413795556132</v>
+        <v>2723.276252047795</v>
       </c>
       <c r="Q38" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="R38" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="S38" t="n">
-        <v>3543.374718827861</v>
+        <v>2812.237175319524</v>
       </c>
       <c r="T38" t="n">
-        <v>3543.374718827861</v>
+        <v>2597.437313587236</v>
       </c>
       <c r="U38" t="n">
-        <v>3289.683015573012</v>
+        <v>2343.745610332387</v>
       </c>
       <c r="V38" t="n">
-        <v>2958.620128229441</v>
+        <v>2012.682722988816</v>
       </c>
       <c r="W38" t="n">
-        <v>2605.851472959327</v>
+        <v>2012.682722988816</v>
       </c>
       <c r="X38" t="n">
-        <v>2232.385714698247</v>
+        <v>2012.682722988816</v>
       </c>
       <c r="Y38" t="n">
-        <v>1842.246382722435</v>
+        <v>1622.543391013004</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4134795532265</v>
+        <v>972.7907286830597</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9604502720995</v>
+        <v>798.3376994019327</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0260406108482</v>
+        <v>649.4032897406814</v>
       </c>
       <c r="E39" t="n">
-        <v>504.7885856053927</v>
+        <v>490.165834735226</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2540276322777</v>
+        <v>343.6312767621109</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8126299914996</v>
+        <v>206.1898791213329</v>
       </c>
       <c r="H39" t="n">
-        <v>119.8966521363042</v>
+        <v>105.2739012661374</v>
       </c>
       <c r="I39" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J39" t="n">
-        <v>192.6510469835163</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="K39" t="n">
-        <v>522.0794512893262</v>
+        <v>301.8943696214125</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.440991155445</v>
+        <v>439.1239676371065</v>
       </c>
       <c r="M39" t="n">
-        <v>1253.562877620958</v>
+        <v>1079.669317104211</v>
       </c>
       <c r="N39" t="n">
-        <v>1452.219619273623</v>
+        <v>1752.875009356994</v>
       </c>
       <c r="O39" t="n">
-        <v>2001.655628026346</v>
+        <v>2302.311018109717</v>
       </c>
       <c r="P39" t="n">
-        <v>2425.623396507182</v>
+        <v>2411.000645637016</v>
       </c>
       <c r="Q39" t="n">
-        <v>2656.33685256765</v>
+        <v>2641.714101697483</v>
       </c>
       <c r="R39" t="n">
-        <v>2635.224952969837</v>
+        <v>2620.60220209967</v>
       </c>
       <c r="S39" t="n">
-        <v>2485.758163832472</v>
+        <v>2471.135412962305</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.76886799256</v>
+        <v>2274.146117122393</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.630080503725</v>
+        <v>2046.007329633559</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.477972271983</v>
+        <v>1810.855221401816</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.240615543781</v>
+        <v>1556.617864673614</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.389115338248</v>
+        <v>1348.766364468082</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.628816573294</v>
+        <v>1141.006065703128</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>540.9577110492564</v>
+        <v>378.4218665966965</v>
       </c>
       <c r="C40" t="n">
-        <v>372.0215281213495</v>
+        <v>209.4856836687896</v>
       </c>
       <c r="D40" t="n">
-        <v>221.9048887090138</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="E40" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="F40" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="G40" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="H40" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="I40" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J40" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="K40" t="n">
-        <v>175.0397247222305</v>
+        <v>160.4169738520637</v>
       </c>
       <c r="L40" t="n">
-        <v>359.8727196230489</v>
+        <v>345.2499687528821</v>
       </c>
       <c r="M40" t="n">
-        <v>565.1423203422868</v>
+        <v>550.5195694721201</v>
       </c>
       <c r="N40" t="n">
-        <v>770.9656851783911</v>
+        <v>756.3429343082244</v>
       </c>
       <c r="O40" t="n">
-        <v>945.06058056699</v>
+        <v>930.4378296968232</v>
       </c>
       <c r="P40" t="n">
-        <v>1070.508157165606</v>
+        <v>1055.885406295439</v>
       </c>
       <c r="Q40" t="n">
-        <v>1073.926476585965</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="R40" t="n">
-        <v>1073.926476585965</v>
+        <v>928.8257644352013</v>
       </c>
       <c r="S40" t="n">
-        <v>1073.926476585965</v>
+        <v>721.3854796876067</v>
       </c>
       <c r="T40" t="n">
-        <v>1073.926476585965</v>
+        <v>721.3854796876067</v>
       </c>
       <c r="U40" t="n">
-        <v>1073.926476585965</v>
+        <v>721.3854796876067</v>
       </c>
       <c r="V40" t="n">
-        <v>1073.926476585965</v>
+        <v>466.7009914817198</v>
       </c>
       <c r="W40" t="n">
-        <v>1073.926476585965</v>
+        <v>378.4218665966965</v>
       </c>
       <c r="X40" t="n">
-        <v>845.9369256879481</v>
+        <v>378.4218665966965</v>
       </c>
       <c r="Y40" t="n">
-        <v>625.144346544418</v>
+        <v>378.4218665966965</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2333.305065052698</v>
+        <v>1818.247282521683</v>
       </c>
       <c r="C41" t="n">
-        <v>1964.342548112286</v>
+        <v>1449.284765581271</v>
       </c>
       <c r="D41" t="n">
-        <v>1606.076849505536</v>
+        <v>1174.366316871796</v>
       </c>
       <c r="E41" t="n">
-        <v>1220.288596907291</v>
+        <v>788.5780642735519</v>
       </c>
       <c r="F41" t="n">
-        <v>809.3026921176837</v>
+        <v>377.5921594839444</v>
       </c>
       <c r="G41" t="n">
-        <v>392.2149103541112</v>
+        <v>377.5921594839444</v>
       </c>
       <c r="H41" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="I41" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J41" t="n">
-        <v>262.631694140357</v>
+        <v>80.60329424983722</v>
       </c>
       <c r="K41" t="n">
-        <v>666.0988071604024</v>
+        <v>163.1664488244296</v>
       </c>
       <c r="L41" t="n">
-        <v>1218.912065406602</v>
+        <v>715.9797070706288</v>
       </c>
       <c r="M41" t="n">
-        <v>1850.629876389914</v>
+        <v>1119.492332881577</v>
       </c>
       <c r="N41" t="n">
-        <v>2477.93754444976</v>
+        <v>1746.800000941424</v>
       </c>
       <c r="O41" t="n">
-        <v>3025.098749216837</v>
+        <v>2293.961205708501</v>
       </c>
       <c r="P41" t="n">
-        <v>3454.413795556132</v>
+        <v>2723.276252047795</v>
       </c>
       <c r="Q41" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="R41" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="S41" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="T41" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="U41" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="V41" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="W41" t="n">
-        <v>3346.821101060918</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="X41" t="n">
-        <v>2973.355342799839</v>
+        <v>2594.986454561616</v>
       </c>
       <c r="Y41" t="n">
-        <v>2583.216010824027</v>
+        <v>2204.847122585805</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4134795532265</v>
+        <v>972.7907286830597</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9604502720995</v>
+        <v>798.3376994019327</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0260406108482</v>
+        <v>649.4032897406814</v>
       </c>
       <c r="E42" t="n">
-        <v>504.7885856053927</v>
+        <v>490.165834735226</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2540276322777</v>
+        <v>343.6312767621109</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8126299914996</v>
+        <v>206.1898791213329</v>
       </c>
       <c r="H42" t="n">
-        <v>119.8966521363042</v>
+        <v>105.2739012661374</v>
       </c>
       <c r="I42" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J42" t="n">
-        <v>192.6510469835163</v>
+        <v>178.0282961133496</v>
       </c>
       <c r="K42" t="n">
-        <v>522.0794512893262</v>
+        <v>507.4567004191595</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.440991155445</v>
+        <v>1011.818240285278</v>
       </c>
       <c r="M42" t="n">
-        <v>1205.93832751005</v>
+        <v>1191.315576639883</v>
       </c>
       <c r="N42" t="n">
-        <v>1452.219619273623</v>
+        <v>1864.521268892666</v>
       </c>
       <c r="O42" t="n">
-        <v>2001.655628026346</v>
+        <v>2024.033581561426</v>
       </c>
       <c r="P42" t="n">
-        <v>2425.623396507182</v>
+        <v>2448.001350042263</v>
       </c>
       <c r="Q42" t="n">
-        <v>2656.33685256765</v>
+        <v>2641.714101697483</v>
       </c>
       <c r="R42" t="n">
-        <v>2635.224952969837</v>
+        <v>2620.60220209967</v>
       </c>
       <c r="S42" t="n">
-        <v>2485.758163832472</v>
+        <v>2471.135412962305</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.76886799256</v>
+        <v>2274.146117122393</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.630080503725</v>
+        <v>2046.007329633559</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.477972271983</v>
+        <v>1810.855221401816</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.240615543781</v>
+        <v>1556.617864673614</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.389115338248</v>
+        <v>1348.766364468082</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.628816573294</v>
+        <v>1141.006065703128</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>411.5348230591442</v>
+        <v>973.7081229096149</v>
       </c>
       <c r="C43" t="n">
-        <v>242.5986401312373</v>
+        <v>804.771939981708</v>
       </c>
       <c r="D43" t="n">
-        <v>242.5986401312373</v>
+        <v>654.6553005693722</v>
       </c>
       <c r="E43" t="n">
-        <v>242.5986401312373</v>
+        <v>506.7422069869792</v>
       </c>
       <c r="F43" t="n">
-        <v>242.5986401312373</v>
+        <v>506.7422069869792</v>
       </c>
       <c r="G43" t="n">
-        <v>73.99179512662066</v>
+        <v>338.1353619823626</v>
       </c>
       <c r="H43" t="n">
-        <v>73.99179512662066</v>
+        <v>183.8807188821276</v>
       </c>
       <c r="I43" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J43" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="K43" t="n">
-        <v>175.0397247222305</v>
+        <v>160.4169738520637</v>
       </c>
       <c r="L43" t="n">
-        <v>359.8727196230489</v>
+        <v>345.2499687528821</v>
       </c>
       <c r="M43" t="n">
-        <v>565.1423203422868</v>
+        <v>550.5195694721201</v>
       </c>
       <c r="N43" t="n">
-        <v>770.9656851783911</v>
+        <v>756.3429343082244</v>
       </c>
       <c r="O43" t="n">
-        <v>945.06058056699</v>
+        <v>930.4378296968232</v>
       </c>
       <c r="P43" t="n">
-        <v>1070.508157165606</v>
+        <v>1055.885406295439</v>
       </c>
       <c r="Q43" t="n">
-        <v>1073.926476585965</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="R43" t="n">
-        <v>1073.926476585965</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="S43" t="n">
-        <v>1073.926476585965</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="T43" t="n">
-        <v>1073.926476585965</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="U43" t="n">
-        <v>928.9415439941222</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="V43" t="n">
-        <v>928.9415439941222</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="W43" t="n">
-        <v>639.5243739571615</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="X43" t="n">
-        <v>411.5348230591442</v>
+        <v>973.7081229096149</v>
       </c>
       <c r="Y43" t="n">
-        <v>411.5348230591442</v>
+        <v>973.7081229096149</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1825.601271524444</v>
+        <v>1631.496682014629</v>
       </c>
       <c r="C44" t="n">
-        <v>1578.554295514042</v>
+        <v>1631.496682014629</v>
       </c>
       <c r="D44" t="n">
-        <v>1220.288596907291</v>
+        <v>1273.230983407878</v>
       </c>
       <c r="E44" t="n">
-        <v>1220.288596907291</v>
+        <v>887.442730809634</v>
       </c>
       <c r="F44" t="n">
-        <v>809.3026921176837</v>
+        <v>476.4568260200265</v>
       </c>
       <c r="G44" t="n">
-        <v>392.2149103541112</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="H44" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="I44" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J44" t="n">
-        <v>262.631694140357</v>
+        <v>248.0089432701903</v>
       </c>
       <c r="K44" t="n">
-        <v>666.0988071604024</v>
+        <v>651.4760562902358</v>
       </c>
       <c r="L44" t="n">
-        <v>1218.912065406602</v>
+        <v>1204.289314536435</v>
       </c>
       <c r="M44" t="n">
-        <v>1850.629876389914</v>
+        <v>1552.465788049441</v>
       </c>
       <c r="N44" t="n">
-        <v>2477.93754444976</v>
+        <v>1746.800000941424</v>
       </c>
       <c r="O44" t="n">
-        <v>3025.098749216838</v>
+        <v>2293.961205708501</v>
       </c>
       <c r="P44" t="n">
-        <v>3454.413795556132</v>
+        <v>2723.276252047795</v>
       </c>
       <c r="Q44" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="R44" t="n">
-        <v>3699.589756331033</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="S44" t="n">
-        <v>3543.374718827861</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="T44" t="n">
-        <v>3328.574857095572</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="U44" t="n">
-        <v>3328.574857095572</v>
+        <v>2968.452212822696</v>
       </c>
       <c r="V44" t="n">
-        <v>3328.574857095572</v>
+        <v>2744.330935609945</v>
       </c>
       <c r="W44" t="n">
-        <v>2975.806201825458</v>
+        <v>2391.562280339831</v>
       </c>
       <c r="X44" t="n">
-        <v>2602.340443564378</v>
+        <v>2018.09652207875</v>
       </c>
       <c r="Y44" t="n">
-        <v>2212.201111588566</v>
+        <v>2018.09652207875</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4134795532265</v>
+        <v>972.7907286830597</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9604502720995</v>
+        <v>798.3376994019327</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0260406108482</v>
+        <v>649.4032897406814</v>
       </c>
       <c r="E45" t="n">
-        <v>504.7885856053927</v>
+        <v>490.165834735226</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2540276322777</v>
+        <v>343.6312767621109</v>
       </c>
       <c r="G45" t="n">
-        <v>220.8126299914996</v>
+        <v>206.1898791213329</v>
       </c>
       <c r="H45" t="n">
-        <v>119.8966521363042</v>
+        <v>105.2739012661374</v>
       </c>
       <c r="I45" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J45" t="n">
-        <v>192.6510469835163</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="K45" t="n">
-        <v>522.0794512893262</v>
+        <v>126.976863919811</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.440991155445</v>
+        <v>264.2064619355049</v>
       </c>
       <c r="M45" t="n">
-        <v>1253.562877620958</v>
+        <v>904.7518114026095</v>
       </c>
       <c r="N45" t="n">
-        <v>1452.219619273623</v>
+        <v>1577.957503655392</v>
       </c>
       <c r="O45" t="n">
-        <v>2001.655628026346</v>
+        <v>2127.393512408115</v>
       </c>
       <c r="P45" t="n">
-        <v>2425.623396507182</v>
+        <v>2411.000645637016</v>
       </c>
       <c r="Q45" t="n">
-        <v>2656.33685256765</v>
+        <v>2641.714101697483</v>
       </c>
       <c r="R45" t="n">
-        <v>2635.224952969837</v>
+        <v>2620.60220209967</v>
       </c>
       <c r="S45" t="n">
-        <v>2485.758163832472</v>
+        <v>2471.135412962305</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.76886799256</v>
+        <v>2274.146117122393</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.630080503725</v>
+        <v>2046.007329633559</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.477972271983</v>
+        <v>1810.855221401816</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.240615543781</v>
+        <v>1556.617864673614</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.389115338248</v>
+        <v>1348.766364468082</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.628816573294</v>
+        <v>1141.006065703128</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.8476585471667</v>
+        <v>652.0260641979239</v>
       </c>
       <c r="C46" t="n">
-        <v>518.9114756192598</v>
+        <v>532.3471717736412</v>
       </c>
       <c r="D46" t="n">
-        <v>368.7948362069241</v>
+        <v>382.2305323613054</v>
       </c>
       <c r="E46" t="n">
-        <v>220.881742624531</v>
+        <v>382.2305323613054</v>
       </c>
       <c r="F46" t="n">
-        <v>73.99179512662066</v>
+        <v>382.2305323613054</v>
       </c>
       <c r="G46" t="n">
-        <v>73.99179512662066</v>
+        <v>213.6236873566888</v>
       </c>
       <c r="H46" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="I46" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="J46" t="n">
-        <v>73.99179512662066</v>
+        <v>59.36904425645393</v>
       </c>
       <c r="K46" t="n">
-        <v>175.0397247222305</v>
+        <v>160.4169738520637</v>
       </c>
       <c r="L46" t="n">
-        <v>359.8727196230489</v>
+        <v>345.2499687528821</v>
       </c>
       <c r="M46" t="n">
-        <v>565.1423203422868</v>
+        <v>550.5195694721201</v>
       </c>
       <c r="N46" t="n">
-        <v>770.9656851783911</v>
+        <v>756.3429343082244</v>
       </c>
       <c r="O46" t="n">
-        <v>945.06058056699</v>
+        <v>930.4378296968232</v>
       </c>
       <c r="P46" t="n">
-        <v>1070.508157165606</v>
+        <v>1055.885406295439</v>
       </c>
       <c r="Q46" t="n">
-        <v>1073.926476585965</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="R46" t="n">
-        <v>1073.926476585965</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="S46" t="n">
-        <v>869.4961233774064</v>
+        <v>1059.303725715799</v>
       </c>
       <c r="T46" t="n">
-        <v>869.4961233774064</v>
+        <v>833.6745290281636</v>
       </c>
       <c r="U46" t="n">
-        <v>869.4961233774064</v>
+        <v>833.6745290281636</v>
       </c>
       <c r="V46" t="n">
-        <v>869.4961233774064</v>
+        <v>833.6745290281636</v>
       </c>
       <c r="W46" t="n">
-        <v>869.4961233774064</v>
+        <v>833.6745290281636</v>
       </c>
       <c r="X46" t="n">
-        <v>869.4961233774064</v>
+        <v>833.6745290281636</v>
       </c>
       <c r="Y46" t="n">
-        <v>869.4961233774064</v>
+        <v>833.6745290281636</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>84.76509210991534</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>94.6682453834549</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>361.0244890520117</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>83.13766073289534</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>84.76509210991534</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>65.93277620216114</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>398.9538547553472</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.65005118366554</v>
+        <v>111.8731299141886</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>52.78970195316195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>181.9105774298577</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>146.8264299130163</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.166261194685955</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8701,16 +8701,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>98.9330356140897</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>48.10560617263482</v>
       </c>
       <c r="N12" t="n">
-        <v>48.1056061726357</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.93303561408969</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8938,16 +8938,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>45.38463668251659</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>48.1056061726357</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>101.2797400137713</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9181,10 +9181,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>41.66684235327597</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>176.8008973295439</v>
+        <v>240.7280987119432</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,19 +9403,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>68.81599650215668</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>176.8008973295434</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263482</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>172.7028388416601</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>172.7028388416601</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10363,13 +10363,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>360.2581794700756</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10594,10 +10594,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>163.1081421086852</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,22 +10664,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>252.0838998303294</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10831,16 +10831,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>163.1081421086852</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10901,25 +10901,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>176.6843491935369</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>219.0032454399401</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>48.10560617263477</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>172.7028388416601</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>163.1081421086854</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>176.6843491935368</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>24.95043279793833</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>233.828866654923</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>13.23676373609288</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,7 +23433,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>123.266557879417</v>
@@ -23466,13 +23466,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>202.9114053470882</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23515,7 +23515,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.04469865859747</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>72.41853588648786</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -23703,19 +23703,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>11.5871049708141</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.9067382283352</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>137.0325589216132</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23752,7 +23752,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.84096702170575</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>114.3887616483275</v>
+        <v>2.232782772392568</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23946,7 +23946,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938903</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>47.72675432791672</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>33.3085463127494</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>187.5320480623148</v>
       </c>
       <c r="V22" t="n">
-        <v>172.851595938737</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>38.10515336973123</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>286.0991553330617</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.0353973385463</v>
       </c>
       <c r="E25" t="n">
-        <v>23.31880203764948</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.9207765545704</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>151.4290252835052</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.1547862223006</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>253.8180462437554</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>130.0353973385463</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24654,7 +24654,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>58.35886639452337</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>207.9957299165327</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>111.7868677380381</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>53.24937415671637</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
         <v>152.7120966692326</v>
@@ -24894,19 +24894,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>2.232782772392511</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>38.10515336973111</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>145.1255750687397</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,25 +25125,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S34" t="n">
-        <v>205.3658819001186</v>
+        <v>40.35184357388331</v>
       </c>
       <c r="T34" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6350887750119</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>56.96621599587939</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>158.3958370368248</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>53.57541870077377</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I37" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>17.69584188176898</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>205.3658819001186</v>
@@ -25371,16 +25371,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>233.5128458521561</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>146.9650073535133</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>103.2175949072677</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96.48721104172735</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>223.3729047207587</v>
@@ -25608,16 +25608,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>199.126664700418</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>135.322005349865</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>82.51377739830264</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>17.69584188176898</v>
@@ -25842,16 +25842,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>142.7255713921722</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>140.9700086109152</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>120.6963855207089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
         <v>118.4960408938903</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>105.872194029511</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>48.76471759858796</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>123.266557879417</v>
@@ -26073,10 +26073,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>2.97983222364519</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.260654658097</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1023472.66991671</v>
+        <v>1025107.235913755</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1025989.356056818</v>
+        <v>1025107.235913755</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738636.0673610818</v>
+        <v>738636.0673610817</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738636.0673610818</v>
+        <v>738636.0673610817</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738636.0673610818</v>
+        <v>738636.0673610817</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849915.0630187002</v>
+        <v>849915.0630187003</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849915.0630187002</v>
+        <v>849915.0630187003</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849915.0630187003</v>
+        <v>773487.7209897665</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849915.0630187002</v>
+        <v>773487.7209897666</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849915.0630187003</v>
+        <v>773487.7209897666</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849915.0630187001</v>
+        <v>773487.7209897666</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849915.0630187002</v>
+        <v>773487.7209897665</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719627</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="E2" t="n">
+        <v>341123.8154961247</v>
+      </c>
+      <c r="F2" t="n">
         <v>341123.8154961246</v>
-      </c>
-      <c r="F2" t="n">
-        <v>341123.8154961247</v>
       </c>
       <c r="G2" t="n">
         <v>341123.8154961246</v>
       </c>
       <c r="H2" t="n">
-        <v>341123.8154961245</v>
+        <v>341123.8154961246</v>
       </c>
       <c r="I2" t="n">
-        <v>388396.004047322</v>
+        <v>388396.0040473221</v>
       </c>
       <c r="J2" t="n">
-        <v>388396.0040473219</v>
+        <v>388396.0040473221</v>
       </c>
       <c r="K2" t="n">
-        <v>388396.004047322</v>
+        <v>388396.0040473221</v>
       </c>
       <c r="L2" t="n">
-        <v>388396.0040473221</v>
+        <v>355929.0708088635</v>
       </c>
       <c r="M2" t="n">
-        <v>388396.004047322</v>
+        <v>355929.0708088637</v>
       </c>
       <c r="N2" t="n">
-        <v>388396.0040473221</v>
+        <v>355929.0708088634</v>
       </c>
       <c r="O2" t="n">
-        <v>388396.004047322</v>
+        <v>355929.0708088637</v>
       </c>
       <c r="P2" t="n">
-        <v>388396.004047322</v>
+        <v>355929.0708088636</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>359010.155612768</v>
       </c>
       <c r="C3" t="n">
-        <v>340558.8171436583</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>78534.64341895132</v>
+        <v>191531.6775696333</v>
       </c>
       <c r="E3" t="n">
         <v>184057.5967969422</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>70771.13658715875</v>
+        <v>70771.13658715878</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>124536.554541857</v>
       </c>
       <c r="K3" t="n">
-        <v>79181.07467234456</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18968.65157843781</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325319.6241977946</v>
+        <v>262954.0699542235</v>
       </c>
       <c r="C4" t="n">
-        <v>229299.9704187171</v>
+        <v>262954.0699542235</v>
       </c>
       <c r="D4" t="n">
         <v>205909.8635325273</v>
       </c>
       <c r="E4" t="n">
-        <v>42070.66996223804</v>
+        <v>42070.66996223803</v>
       </c>
       <c r="F4" t="n">
-        <v>42070.66996223804</v>
+        <v>42070.66996223803</v>
       </c>
       <c r="G4" t="n">
         <v>42070.66996223803</v>
@@ -26447,19 +26447,19 @@
         <v>56875.79859469587</v>
       </c>
       <c r="L4" t="n">
-        <v>56875.79859469587</v>
+        <v>46707.5128091497</v>
       </c>
       <c r="M4" t="n">
-        <v>56875.79859469587</v>
+        <v>46707.5128091497</v>
       </c>
       <c r="N4" t="n">
-        <v>56875.79859469587</v>
+        <v>46707.5128091497</v>
       </c>
       <c r="O4" t="n">
-        <v>56875.79859469587</v>
+        <v>46707.5128091497</v>
       </c>
       <c r="P4" t="n">
-        <v>56875.79859469587</v>
+        <v>46707.5128091497</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51181.37951678014</v>
+        <v>67080.31828829816</v>
       </c>
       <c r="C5" t="n">
-        <v>75660.43935347704</v>
+        <v>67080.31828829815</v>
       </c>
       <c r="D5" t="n">
-        <v>81623.75293431574</v>
+        <v>81623.75293431572</v>
       </c>
       <c r="E5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="F5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="G5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="H5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="I5" t="n">
         <v>69171.54328360151</v>
@@ -26499,19 +26499,19 @@
         <v>69171.54328360151</v>
       </c>
       <c r="L5" t="n">
-        <v>69171.54328360151</v>
+        <v>58058.25262227481</v>
       </c>
       <c r="M5" t="n">
-        <v>69171.54328360151</v>
+        <v>58058.25262227481</v>
       </c>
       <c r="N5" t="n">
-        <v>69171.54328360151</v>
+        <v>58058.25262227481</v>
       </c>
       <c r="O5" t="n">
-        <v>69171.54328360151</v>
+        <v>58058.25262227481</v>
       </c>
       <c r="P5" t="n">
-        <v>69171.54328360151</v>
+        <v>58058.25262227481</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30695.32748942496</v>
+        <v>-216945.5261833268</v>
       </c>
       <c r="C6" t="n">
-        <v>-173420.2092438895</v>
+        <v>142064.6294294411</v>
       </c>
       <c r="D6" t="n">
-        <v>106030.7577861685</v>
+        <v>-6966.276364513687</v>
       </c>
       <c r="E6" t="n">
-        <v>56310.49689182358</v>
+        <v>61435.61349870435</v>
       </c>
       <c r="F6" t="n">
-        <v>240368.0936887659</v>
+        <v>245493.2102956464</v>
       </c>
       <c r="G6" t="n">
-        <v>240368.0936887658</v>
+        <v>245493.2102956465</v>
       </c>
       <c r="H6" t="n">
-        <v>240368.0936887657</v>
+        <v>245493.2102956465</v>
       </c>
       <c r="I6" t="n">
-        <v>187938.264119925</v>
+        <v>191213.5994356719</v>
       </c>
       <c r="J6" t="n">
-        <v>186454.7058359445</v>
+        <v>137448.1814809736</v>
       </c>
       <c r="K6" t="n">
-        <v>179528.3260347392</v>
+        <v>261984.7360228306</v>
       </c>
       <c r="L6" t="n">
-        <v>239740.749128646</v>
+        <v>250658.2186519473</v>
       </c>
       <c r="M6" t="n">
-        <v>258709.4007070838</v>
+        <v>250658.2186519474</v>
       </c>
       <c r="N6" t="n">
-        <v>258709.4007070838</v>
+        <v>250658.2186519472</v>
       </c>
       <c r="O6" t="n">
-        <v>258709.4007070837</v>
+        <v>250658.2186519474</v>
       </c>
       <c r="P6" t="n">
-        <v>258709.4007070837</v>
+        <v>250658.2186519474</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>207.0325733724359</v>
       </c>
       <c r="C3" t="n">
-        <v>299.8612777504719</v>
+        <v>207.0325733724359</v>
       </c>
       <c r="D3" t="n">
         <v>364.3786277160532</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>475.9771083680766</v>
       </c>
       <c r="C4" t="n">
-        <v>583.8135443834991</v>
+        <v>475.9771083680765</v>
       </c>
       <c r="D4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="F4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="G4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="H4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="I4" t="n">
         <v>924.8974390827582</v>
@@ -26819,19 +26819,19 @@
         <v>924.8974390827582</v>
       </c>
       <c r="L4" t="n">
-        <v>924.8974390827582</v>
+        <v>742.1130532056741</v>
       </c>
       <c r="M4" t="n">
-        <v>924.8974390827582</v>
+        <v>742.1130532056741</v>
       </c>
       <c r="N4" t="n">
-        <v>924.8974390827582</v>
+        <v>742.1130532056741</v>
       </c>
       <c r="O4" t="n">
-        <v>924.8974390827582</v>
+        <v>742.1130532056741</v>
       </c>
       <c r="P4" t="n">
-        <v>924.8974390827582</v>
+        <v>742.1130532056741</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>207.0325733724359</v>
       </c>
       <c r="C3" t="n">
-        <v>264.8400170313465</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>64.51734996558133</v>
+        <v>157.3460543436173</v>
       </c>
       <c r="E3" t="n">
         <v>229.0974726220119</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>475.9771083680766</v>
       </c>
       <c r="C4" t="n">
-        <v>307.6570306811436</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74.94794986166164</v>
+        <v>182.7843858770841</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27032,16 +27032,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>266.1359448375974</v>
+        <v>266.1359448375975</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>475.9771083680766</v>
       </c>
       <c r="K4" t="n">
-        <v>307.6570306811436</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>74.94794986166164</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>475.9771083680766</v>
       </c>
       <c r="K4" t="n">
-        <v>307.6570306811436</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>74.94794986166164</v>
+        <v>182.7843858770841</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>359.7890536128499</v>
+        <v>383.0051572843367</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194537</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>190.0542212818257</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505753</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>105.1568159143699</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>136.8982018167114</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>107.9346354953068</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>74.06450359694695</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>92.87397819166168</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27542,28 +27542,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>25.538734061208</v>
       </c>
       <c r="E4" t="n">
-        <v>116.7238167216225</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>167.6176419310658</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>158.9078633802553</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>144.2232002925695</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>66.96422399999354</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>54.90012467245657</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>160.5067830509389</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>217.5103448704975</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>226.3504204203299</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2986654968149</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>338.0244459767009</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>114.0314692961439</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>164.0019120408579</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>74.14585768590112</v>
+        <v>97.5876711588129</v>
       </c>
       <c r="S5" t="n">
-        <v>181.5503655993554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8188938119597</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.249215109967</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.50921991999971</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>163.4116338563636</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3697953464323</v>
       </c>
       <c r="U6" t="n">
-        <v>200.1539088226102</v>
+        <v>5.119956572763044</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>55.47521321852471</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>25.538734061208</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4502459067776</v>
+        <v>167.6176419310658</v>
       </c>
       <c r="H7" t="n">
-        <v>157.4195605461287</v>
+        <v>158.9078633802553</v>
       </c>
       <c r="I7" t="n">
-        <v>139.1891453076097</v>
+        <v>144.2232002925695</v>
       </c>
       <c r="J7" t="n">
-        <v>55.12932508281344</v>
+        <v>66.96422399999354</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>40.88299031137313</v>
+        <v>54.90012467245657</v>
       </c>
       <c r="R7" t="n">
-        <v>152.980049086123</v>
+        <v>160.5067830509389</v>
       </c>
       <c r="S7" t="n">
-        <v>214.5930887017648</v>
+        <v>217.5103448704975</v>
       </c>
       <c r="T7" t="n">
-        <v>225.6351828620074</v>
+        <v>226.3504204203299</v>
       </c>
       <c r="U7" t="n">
-        <v>286.289534804581</v>
+        <v>286.2986654968149</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>195.9042960956271</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>136.3086795196323</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>324.4730227344726</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>175.6400576100461</v>
       </c>
       <c r="T8" t="n">
-        <v>216.683518135681</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2284658114856</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>63.98519506579823</v>
+        <v>63.98519506579866</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>139.8744342741018</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>150.4935236853584</v>
+        <v>167.3339031445446</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.3851676237297</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>135.6904011488205</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>46.90389179293925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.8322917522509978</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>8.523707907740533</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>32.08692777865663</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>70.6397221076132</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>105.870631980398</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>131.3418806933495</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>146.1431491424431</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>148.5078980835263</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>140.2317969720804</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>119.6845943383839</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>89.87814596089501</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>52.28144678233679</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>18.96584830441963</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>3.643357145478745</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.06658334018007982</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.4453153464992017</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>4.300808741189659</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>15.33212925446813</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>42.07253455675134</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>71.90866277219786</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>96.6900711773815</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>112.8327524879775</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>115.8190997020007</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>105.951849129571</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>85.03569980650107</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>56.84411335312618</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>27.64861423264343</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>8.271537247474201</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>1.794933348389326</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.02929706226968434</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.3733374273929171</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>3.319309127184302</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>11.22727463468882</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>26.39495611667924</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>43.37502110983164</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>55.5050935234888</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>58.52233873214608</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>57.13080832095434</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>52.76954837368253</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>45.15346485486698</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>31.26191857923781</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>16.78660832623061</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>6.506253166474744</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.595169007951555</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.02036385967597732</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.20547247336873</v>
+        <v>0.8322917522509978</v>
       </c>
       <c r="H5" t="n">
-        <v>12.34554496788751</v>
+        <v>8.523707907740533</v>
       </c>
       <c r="I5" t="n">
-        <v>46.47397752954802</v>
+        <v>32.08692777865663</v>
       </c>
       <c r="J5" t="n">
-        <v>102.3129693365794</v>
+        <v>70.6397221076132</v>
       </c>
       <c r="K5" t="n">
-        <v>153.3406191342777</v>
+        <v>105.870631980398</v>
       </c>
       <c r="L5" t="n">
-        <v>190.2325973411361</v>
+        <v>131.3418806933495</v>
       </c>
       <c r="M5" t="n">
-        <v>211.6704184394072</v>
+        <v>146.1431491424431</v>
       </c>
       <c r="N5" t="n">
-        <v>215.0954671043661</v>
+        <v>148.5078980835263</v>
       </c>
       <c r="O5" t="n">
-        <v>203.1085501973058</v>
+        <v>140.2317969720804</v>
       </c>
       <c r="P5" t="n">
-        <v>173.3484485110152</v>
+        <v>119.6845943383839</v>
       </c>
       <c r="Q5" t="n">
-        <v>130.1774655584975</v>
+        <v>89.87814596089501</v>
       </c>
       <c r="R5" t="n">
-        <v>75.72326025524856</v>
+        <v>52.28144678233679</v>
       </c>
       <c r="S5" t="n">
-        <v>27.46970398688997</v>
+        <v>18.96584830441963</v>
       </c>
       <c r="T5" t="n">
-        <v>5.276955752171619</v>
+        <v>3.643357145478745</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0964377978694984</v>
+        <v>0.06658334018007982</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6449846351613924</v>
+        <v>0.4453153464992017</v>
       </c>
       <c r="H6" t="n">
-        <v>6.229193713269237</v>
+        <v>4.300808741189659</v>
       </c>
       <c r="I6" t="n">
-        <v>22.20670783340759</v>
+        <v>15.33212925446813</v>
       </c>
       <c r="J6" t="n">
-        <v>60.93690362285769</v>
+        <v>42.07253455675134</v>
       </c>
       <c r="K6" t="n">
-        <v>104.150874178671</v>
+        <v>71.90866277219786</v>
       </c>
       <c r="L6" t="n">
-        <v>140.0437033494067</v>
+        <v>96.6900711773815</v>
       </c>
       <c r="M6" t="n">
-        <v>163.4243963740071</v>
+        <v>112.8327524879775</v>
       </c>
       <c r="N6" t="n">
-        <v>167.7497538615588</v>
+        <v>115.8190997020007</v>
       </c>
       <c r="O6" t="n">
-        <v>153.4582522087721</v>
+        <v>105.951849129571</v>
       </c>
       <c r="P6" t="n">
-        <v>123.1637765160382</v>
+        <v>85.03569980650107</v>
       </c>
       <c r="Q6" t="n">
-        <v>82.33172290235598</v>
+        <v>56.84411335312618</v>
       </c>
       <c r="R6" t="n">
-        <v>40.0456249795819</v>
+        <v>27.64861423264343</v>
       </c>
       <c r="S6" t="n">
-        <v>11.98030671012498</v>
+        <v>8.271537247474201</v>
       </c>
       <c r="T6" t="n">
-        <v>2.599740700497014</v>
+        <v>1.794933348389326</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04243319968167057</v>
+        <v>0.02929706226968434</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5407334516811787</v>
+        <v>0.3733374273929171</v>
       </c>
       <c r="H7" t="n">
-        <v>4.807611961310847</v>
+        <v>3.319309127184302</v>
       </c>
       <c r="I7" t="n">
-        <v>16.26132961964854</v>
+        <v>11.22727463468882</v>
       </c>
       <c r="J7" t="n">
-        <v>38.22985503385933</v>
+        <v>26.39495611667924</v>
       </c>
       <c r="K7" t="n">
-        <v>62.82339556804965</v>
+        <v>43.37502110983164</v>
       </c>
       <c r="L7" t="n">
-        <v>80.39231698903635</v>
+        <v>55.5050935234888</v>
       </c>
       <c r="M7" t="n">
-        <v>84.76242643035057</v>
+        <v>58.52233873214608</v>
       </c>
       <c r="N7" t="n">
-        <v>82.74696538317534</v>
+        <v>57.13080832095434</v>
       </c>
       <c r="O7" t="n">
-        <v>76.43021551580881</v>
+        <v>52.76954837368253</v>
       </c>
       <c r="P7" t="n">
-        <v>65.39925310151271</v>
+        <v>45.15346485486698</v>
       </c>
       <c r="Q7" t="n">
-        <v>45.27905294032125</v>
+        <v>31.26191857923781</v>
       </c>
       <c r="R7" t="n">
-        <v>24.31334229104645</v>
+        <v>16.78660832623061</v>
       </c>
       <c r="S7" t="n">
-        <v>9.423509335207447</v>
+        <v>6.506253166474744</v>
       </c>
       <c r="T7" t="n">
-        <v>2.310406566274127</v>
+        <v>1.595169007951555</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02949455190988251</v>
+        <v>0.02036385967597732</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31870,7 +31870,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U12" t="n">
         <v>0.08398246702897151</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.69043275300068</v>
       </c>
       <c r="K2" t="n">
-        <v>121.9644487350302</v>
+        <v>209.9261935065821</v>
       </c>
       <c r="L2" t="n">
-        <v>204.1123577751702</v>
+        <v>313.2366802738127</v>
       </c>
       <c r="M2" t="n">
-        <v>243.8886146223321</v>
+        <v>365.3104494080029</v>
       </c>
       <c r="N2" t="n">
-        <v>233.0551918837966</v>
+        <v>356.4417588989195</v>
       </c>
       <c r="O2" t="n">
-        <v>174.4233304118708</v>
+        <v>290.9337668131391</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>210.250306754597</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>79.88744674635021</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>28.73546918129377</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>328.9760367009665</v>
       </c>
       <c r="M3" t="n">
-        <v>237.9770422219167</v>
+        <v>436.4037823159591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>463.8197619622209</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>357.2179239618561</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>269.524061032108</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.10552928394878</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>83.09511878380493</v>
       </c>
       <c r="M4" t="n">
-        <v>49.4834113647894</v>
+        <v>98.10621569398667</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>101.2629807001829</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>77.3546762877222</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>42.43202411976046</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>90.36367998196684</v>
+        <v>58.69043275300068</v>
       </c>
       <c r="K5" t="n">
-        <v>257.3961806604619</v>
+        <v>209.9261935065821</v>
       </c>
       <c r="L5" t="n">
-        <v>372.1273969215993</v>
+        <v>313.2366802738127</v>
       </c>
       <c r="M5" t="n">
-        <v>430.837718704967</v>
+        <v>365.3104494080029</v>
       </c>
       <c r="N5" t="n">
-        <v>423.0293279197593</v>
+        <v>356.4417588989195</v>
       </c>
       <c r="O5" t="n">
-        <v>353.8105200383644</v>
+        <v>290.9337668131391</v>
       </c>
       <c r="P5" t="n">
-        <v>263.9141609272284</v>
+        <v>210.250306754597</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.1867663439527</v>
+        <v>79.88744674635021</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.19031229659983</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>230.7746722168906</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>372.3296688729917</v>
+        <v>328.9760367009665</v>
       </c>
       <c r="M6" t="n">
-        <v>420.244217207336</v>
+        <v>436.4037823159591</v>
       </c>
       <c r="N6" t="n">
-        <v>515.750416121779</v>
+        <v>463.8197619622209</v>
       </c>
       <c r="O6" t="n">
-        <v>404.7243270410572</v>
+        <v>357.2179239618561</v>
       </c>
       <c r="P6" t="n">
-        <v>307.6521377416451</v>
+        <v>269.524061032108</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>28.73546918129324</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>40.5539037421668</v>
+        <v>21.10552928394878</v>
       </c>
       <c r="L7" t="n">
-        <v>107.9823422493525</v>
+        <v>83.09511878380493</v>
       </c>
       <c r="M7" t="n">
-        <v>124.3463033921912</v>
+        <v>98.10621569398667</v>
       </c>
       <c r="N7" t="n">
-        <v>126.8791377624039</v>
+        <v>101.2629807001829</v>
       </c>
       <c r="O7" t="n">
-        <v>101.0153434298485</v>
+        <v>77.3546762877222</v>
       </c>
       <c r="P7" t="n">
-        <v>62.6778123664062</v>
+        <v>42.43202411976046</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>73.30133338724688</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>253.1834955535209</v>
@@ -35269,10 +35269,10 @@
         <v>437.7419938673109</v>
       </c>
       <c r="P9" t="n">
-        <v>197.5995350485607</v>
+        <v>334.1517262586402</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.1415096974503</v>
+        <v>106.8906518746175</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.44873736705384</v>
+        <v>23.61499856173979</v>
       </c>
       <c r="K11" t="n">
         <v>407.5425384040863</v>
@@ -35421,16 +35421,16 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O11" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P11" t="n">
-        <v>210.7858894014902</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348619</v>
       </c>
       <c r="N12" t="n">
-        <v>248.7689815793677</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269929</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>120.3817729811435</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K14" t="n">
         <v>407.5425384040863</v>
@@ -35658,16 +35658,16 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O14" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P14" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.33749497130819</v>
+        <v>80.72213165382477</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35737,7 +35737,7 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>248.7689815793677</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269929</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K17" t="n">
-        <v>83.39712583292157</v>
+        <v>184.6768658466929</v>
       </c>
       <c r="L17" t="n">
         <v>558.3972305517163</v>
@@ -35901,10 +35901,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>153.5196961406765</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K18" t="n">
-        <v>245.0916242622278</v>
+        <v>309.0188256446271</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748672</v>
@@ -35977,13 +35977,13 @@
         <v>200.663375406732</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P18" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>209.5520125034225</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O20" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588832</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K21" t="n">
-        <v>245.0916242622273</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348619</v>
       </c>
       <c r="N21" t="n">
         <v>200.663375406732</v>
@@ -36220,7 +36220,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N24" t="n">
-        <v>200.663375406732</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O24" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P24" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q24" t="n">
-        <v>233.0438950105733</v>
+        <v>195.6694461163843</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,10 +36682,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N27" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
@@ -36852,7 +36852,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q29" t="n">
-        <v>247.6524856312129</v>
+        <v>247.652485631213</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N30" t="n">
-        <v>200.663375406732</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O30" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P30" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q30" t="n">
-        <v>233.0438950105733</v>
+        <v>195.6694461163843</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K32" t="n">
         <v>407.5425384040863</v>
@@ -37083,13 +37083,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O32" t="n">
-        <v>552.6880856233105</v>
+        <v>532.1460838306407</v>
       </c>
       <c r="P32" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q32" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N33" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269929</v>
@@ -37314,10 +37314,10 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M35" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N35" t="n">
-        <v>633.6441091513602</v>
+        <v>359.4053268480613</v>
       </c>
       <c r="O35" t="n">
         <v>552.6880856233105</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>332.7559639452625</v>
+        <v>320.3746267630133</v>
       </c>
       <c r="L36" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M36" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>200.663375406732</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O36" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P36" t="n">
         <v>428.2502711927643</v>
@@ -37551,16 +37551,16 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N38" t="n">
-        <v>633.6441091513602</v>
+        <v>359.4053268480613</v>
       </c>
       <c r="O38" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P38" t="n">
-        <v>433.6515619588833</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q38" t="n">
         <v>247.6524856312129</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>332.7559639452625</v>
+        <v>244.9750761262208</v>
       </c>
       <c r="L39" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M39" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N39" t="n">
-        <v>200.663375406732</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q39" t="n">
         <v>233.0438950105733</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K41" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L41" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
-        <v>638.0987989730422</v>
+        <v>407.5885109201498</v>
       </c>
       <c r="N41" t="n">
         <v>633.6441091513602</v>
@@ -37870,16 +37870,16 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N42" t="n">
-        <v>248.7689815793668</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O42" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P42" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
-        <v>233.0438950105733</v>
+        <v>195.6694461163843</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>638.0987989730422</v>
+        <v>351.6934075888951</v>
       </c>
       <c r="N44" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O44" t="n">
         <v>552.6880856233105</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L45" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M45" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>200.663375406732</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O45" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>428.2502711927643</v>
+        <v>286.4718517463639</v>
       </c>
       <c r="Q45" t="n">
         <v>233.0438950105733</v>
